--- a/Design/Torsobot/Calculations and Notes/Calculations.xlsx
+++ b/Design/Torsobot/Calculations and Notes/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UW-Madison\BADGER Lab\Torsobot\Design\Torsobot\Calculations and Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB828181-AAFF-4DEA-90C0-BB8050344D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89F50C-C4B2-498C-8450-0B732502943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{380A233A-17AF-440A-B471-373ED82C657D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="372">
   <si>
     <t>density</t>
   </si>
@@ -1160,10 +1160,16 @@
     <t>Battery charger</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Tenergy-RC-Airplanes-Batteries-Compatible-Alligator/dp/B001AVUAVC/ref=sr_1_4_sspa?dib=eyJ2IjoiMSJ9.qVW8nUlQrJcAvXfYE2teiXMPCFjH2JppaEegY-6QF1wRxw6dX4SkVw3YPEvCML5XuEKIF34uB5JP2k1kedieN1NnXNdLB40753c-cmQzDTBQz8e-gxgwnlBmMryEAv4-luGwLWKr5Gl-NOEYOsozNfSNsvTqOQZnlymC5wBcQBlwuf54wdZaNVC8zfAFZ7bUDlIv12e9qHGaMtlK9epDIejPywjzfSZZSz6AOw_mR0pvT8PsT_Vss7OpoqREK2PrcA8mXO9T9-MPLLdKF8b4mLe2c4VhOVh35iBXWHmhdus.j5LJG5DFV4t3Tq6U3Wpf07m9amzaok8urZrXN5OB_nk&amp;dib_tag=se&amp;keywords=6s+lipo+charger&amp;qid=1740522534&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
     <t>Not ordered</t>
+  </si>
+  <si>
+    <t>https://a.co/d/gxdHFOQ</t>
+  </si>
+  <si>
+    <t>https://a.co/d/54XNRtZ</t>
+  </si>
+  <si>
+    <t>SH-C31A USB to CAN Adapter</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1436,12 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6676,10 +6676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB5B87-F6C4-4F0B-B790-92ACD4035C2D}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6744,15 +6744,17 @@
         <v>364</v>
       </c>
       <c r="E2" s="8">
-        <v>62.86</v>
+        <v>61.9</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>10.59</v>
+      </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H18" si="0">E2*F2+G2</f>
-        <v>62.86</v>
+        <f t="shared" ref="H2:H21" si="0">E2*F2+G2</f>
+        <v>72.489999999999995</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>227</v>
@@ -6869,7 +6871,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E6" s="8">
         <v>6.99</v>
@@ -6902,7 +6904,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E7" s="8">
         <v>6.98</v>
@@ -6933,7 +6935,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E8" s="8">
         <v>6.59</v>
@@ -6966,7 +6968,7 @@
         <v>174</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E9" s="8">
         <v>20</v>
@@ -6997,7 +6999,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E10" s="8">
         <v>59</v>
@@ -7032,7 +7034,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E11" s="8">
         <v>5</v>
@@ -7303,165 +7305,172 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" s="43" customFormat="1">
-      <c r="A20" s="44">
+    <row r="20" spans="1:12">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="8">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44" t="s">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="L20" s="44"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="8"/>
-      <c r="B21" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25">
-        <f>SUM(H2:H19)</f>
-        <v>286.94</v>
+      <c r="E21" s="8">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="7" t="s">
-        <v>171</v>
-      </c>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8"/>
+      <c r="B22" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25">
+        <f>SUM(H2:H21)</f>
+        <v>333.54999999999995</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="7" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="7">
-        <f>SUM(H2:H33)</f>
-        <v>573.88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="7" t="s">
-        <v>196</v>
+      <c r="H35" s="7">
+        <f>SUM(H2:H34)</f>
+        <v>667.09999999999991</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="C40" s="7" t="s">
+    <row r="41" spans="2:8">
+      <c r="C41" s="7" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="7" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="7" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="8">
-        <v>4</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="F50" s="8">
-        <v>10</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8">
@@ -7479,22 +7488,26 @@
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="E52" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="F52" s="8">
+        <v>10</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8">
         <v>0</v>
@@ -7504,28 +7517,53 @@
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8">
         <v>6</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="B53" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8">
-        <f>E53*F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="8">
+        <v>6</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
+        <f>E54*F54+G54</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K19" xr:uid="{39AB5B87-F6C4-4F0B-B790-92ACD4035C2D}">

--- a/Design/Torsobot/Calculations and Notes/Calculations.xlsx
+++ b/Design/Torsobot/Calculations and Notes/Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\UW-Madison\BADGER Lab\Torsobot\Design\Torsobot\Calculations and Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89F50C-C4B2-498C-8450-0B732502943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E34E-7476-4395-8EA4-FE3DCB3DFF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{380A233A-17AF-440A-B471-373ED82C657D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="8" xr2:uid="{380A233A-17AF-440A-B471-373ED82C657D}"/>
   </bookViews>
   <sheets>
     <sheet name="Leg Tubing Design" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="374">
   <si>
     <t>density</t>
   </si>
@@ -1169,7 +1169,13 @@
     <t>https://a.co/d/54XNRtZ</t>
   </si>
   <si>
-    <t>SH-C31A USB to CAN Adapter</t>
+    <t>mjcanfd-usb-1x</t>
+  </si>
+  <si>
+    <t>https://us.misumi-ec.com/vona2/detail/110303273750/?PNSearch=GBN225MR3-090&amp;HissuCode=GBN225MR3-090&amp;searchFlow=suggest2products&amp;Keyword=GBN225MR3-090&amp;list=SuggestPreview</t>
+  </si>
+  <si>
+    <t>https://us.misumi-ec.com/vona2/detail/110303273750/?PNSearch=GBN267MR3-090&amp;HissuCode=GBN267MR3-090&amp;searchFlow=suggest2products&amp;Keyword=GBN267MR3-090&amp;list=SuggestPreview</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1428,8 +1434,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,7 +1456,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3962,28 +3977,28 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 0 3680 0 0,'-3'10'5492'0'0,"-8"22"1018"0"0,1 10-3592 0 0,-14 96-2227 0 0,11-80-700 0 0,8-40-8 0 0,1 0 0 0 0,1 2-1 0 0,-1 25 1 0 0,4-44 31 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,3 0 0 0 0,35 13-27 0 0,-35-14 21 0 0,37 6-23 0 0,-17-4-19 0 0,178-3-150 0 0,-47-14 39 0 0,-43-2-153 0 0,-106 15 347 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,8 2 0 0 0,-11 0-30 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 2 0 0 0,0-3-2 0 0,-3 105 192 0 0,-1-27-188 0 0,10 25-57 0 0,-4-99 11 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,6 9-1 0 0,-7-14 14 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 0 0 0 0,48 5 27 0 0,-49-6-22 0 0,43 2 54 0 0,-1-2 0 0 0,53-7 0 0 0,-97 7-35 0 0,98-14 140 0 0,-101 13-164 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-4 0 0 0,1-9-25 0 0,-1 1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-3-20 1 0 0,0 6 73 0 0,4-128 387 0 0,-1 158-411 0 0,13-4-9 0 0,-11 4-1 0 0,17-6 37 0 0,-1 2 0 0 0,2 0 0 0 0,21 0 0 0 0,150 0 86 0 0,-85-2-115 0 0,59-2 133 0 0,-163 7-129 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 1 0 0 0,-2-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 1 0 0 0,2 9 29 0 0,-1 0 1 0 0,0 0-1 0 0,4 23 1 0 0,-7-31-33 0 0,6 29-22 0 0,3 13 22 0 0,3 73 0 0 0,-10-76 15 0 0,-2-43-31 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,4 1-26 0 0,9 3 21 0 0,-1-1-1 0 0,1-2 1 0 0,1 1-1 0 0,-1 0 1 0 0,18-1 0 0 0,75-6 41 0 0,-36 0-29 0 0,44 3 157 0 0,-107 3-164 0 0,-5-1 2 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 1 0 0,-2 0-11 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-2 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-3 0 0 0,-1 0-11 0 0,4-8 19 0 0,-2-1-1 0 0,0 2 0 0 0,0-2 1 0 0,-1 0-1 0 0,0 0 0 0 0,-2-25 0 0 0,5-27 70 0 0,-4 55-50 0 0,-1 10-12 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,8-10 0 0 0,18-16 2 0 0,-26 26-4 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,5-1 0 0 0,9-2 7 0 0,-5 0 3 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,21 1 0 0 0,23-2-39 0 0,128-5 31 0 0,19-3 19 0 0,-123 4 33 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1168.58">900 293 4072 0 0,'0'0'3257'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1400.15">920 632 5553 0 0,'0'0'2104'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1496.04">944 893 6001 0 0,'0'0'1472'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1588.15">944 893 7473 0 0,'0'0'0'0'0,"6"65"-1976"0"0,-8-50 1976 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1685.07">906 1240 7913 0 0,'0'0'144'0'0,"8"72"8410"0"0,-2-44-8042 0 0,-2-9-592 0 0,-1 6-352 0 0,1 14-456 0 0,0-6-1881 0 0,1-5-4144 0 0,-2-13 6913 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2764.7">2110 203 4192 0 0,'0'0'4081'0'0,"-17"56"1080"0"0,9-21-11418 0 0,1-12-392 0 0,1 6 6649 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2950.25">2063 542 2736 0 0,'0'0'2977'0'0,"15"56"6001"0"0,-15-48-11683 0 0,0 21-6873 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3137.58">2061 891 8153 0 0,'0'0'6706'0'0,"-5"60"-8331"0"0,5-49-8129 0 0,3-2 9754 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3303.23">2067 1214 8977 0 0,'0'0'1105'0'0,"-21"72"7440"0"0,18-46-8945 0 0,3-9-1504 0 0,-1 6-10891 0 0,-4 13 12795 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4380">1115 1733 5273 0 0,'-9'6'3796'0'0,"-28"16"3759"0"0,35-21-7489 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,1 2 0 0 0,-2-2 124 0 0,3 2-275 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,8 3 0 0 0,17 9-9270 0 0,-26-14 7891 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5028.51">1076 1841 824 0 0,'12'-3'5900'0'0,"43"-5"2323"0"0,-13 3-5892 0 0,317-14-727 0 0,-8-1-1235 0 0,-335 18-357 0 0,0 0 0 0 0,24-7 0 0 0,-33 5-603 0 0,-10 1 341 0 0,1 1 123 0 0,-5-3 128 0 0,-1 2 0 0 0,1-2 0 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-14-4 0 0 0,107 30 1422 0 0,-77-21-1345 0 0,3 2 104 0 0,-11-4-174 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-28 28-1382 0 0,0-4 0 0 0,-53 40-1 0 0,53-43 729 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6100.41">1270 2207 5713 0 0,'0'0'4185'0'0,"8"85"6361"0"0,-8-55-10546 0 0,0-1-104 0 0,0 11-72 0 0,4-5-192 0 0,0-15-424 0 0,-3-13-1017 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6483.49">1217 2281 5329 0 0,'13'-8'5332'0'0,"-1"0"-3717"0"0,4-1-386 0 0,0 0 0 0 0,1 0 0 0 0,0 2 0 0 0,21-7-1 0 0,-7 7-833 0 0,-4 5-207 0 0,-24 3-174 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2 5 0 0 0,-2-6-11 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,-3 1-1 0 0,-5 3-137 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2 0 0 0 0,0-1 0 0 0,-15 2 1 0 0,-19-4-9905 0 0,38-2 8933 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6793.46">1563 2215 8497 0 0,'0'0'4617'0'0,"29"73"2897"0"0,-29-58-7602 0 0,0-10-96 0 0,-2 3-88 0 0,-3 9-408 0 0,-2-3-1065 0 0,3-7-2800 0 0,4-6 4545 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7119.4">1574 2113 7801 0 0,'7'7'3972'0'0,"22"21"1736"0"0,-29-28-5659 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-61 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-25-11-2641 0 0,6 6-5066 0 0,16 4 6449 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7383.69">1740 2084 5969 0 0,'0'0'9850'0'0,"6"57"-3889"0"0,-4-29-5441 0 0,-2-7-312 0 0,2 2-184 0 0,-4 16-144 0 0,2-5-120 0 0,2-15-280 0 0,0-10-440 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7598.6">1630 2245 7881 0 0,'0'0'4345'0'0,"52"-17"-4145"0"0,-7 8-1408 0 0,-7 5-2097 0 0,-10 6 3305 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11953.2">2035 2269 1480 0 0,'-10'-2'5244'0'0,"5"1"-3800"0"0,-2-1 732 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-10 1 0 0 0,-6 4-295 0 0,22-1-1833 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 5 0 0 0,2-8-73 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,1 0 1 0 0,7 1-921 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,12-2 1 0 0,9-5-4686 0 0,-10-3 4376 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12464.16">2155 2145 3848 0 0,'-3'10'6823'0'0,"-10"55"4843"0"0,10-47-11203 0 0,1 2 1 0 0,1-1-1 0 0,0 0 1 0 0,4 27-1 0 0,-3-46-465 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,16-15-79 0 0,-16 15 75 0 0,14-15-74 0 0,-10 11 55 0 0,0-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,6-3-1 0 0,-7 11 79 0 0,3 4-17 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,6 13 0 0 0,7 17-5249 0 0,10-31-10865 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13708.84">1765 2193 2872 0 0,'1'8'4627'0'0,"2"31"6572"0"0,-3 35-6574 0 0,0-34-4684 0 0,0-39-75 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,25 0-4285 0 0,-3-3-3755 0 0,-12-1 6397 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14097.65">1733 2240 4705 0 0,'0'0'2768'0'0,"66"4"6970"0"0,-50-6-9386 0 0,-10 2-328 0 0,8-4-216 0 0,16 0-216 0 0,-7 2-1560 0 0,-6 0-9091 0 0,-11 2 11059 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">79 0 3680 0 0,'-3'10'5492'0'0,"-9"23"1018"0"0,2 9-3592 0 0,-14 99-2227 0 0,11-83-700 0 0,8-39-8 0 0,1-1 0 0 0,1 2-1 0 0,-1 26 1 0 0,4-45 31 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,3 0 0 0 0,35 14-27 0 0,-35-15 21 0 0,38 6-23 0 0,-18-4-19 0 0,179-3-150 0 0,-47-14 39 0 0,-43-3-153 0 0,-107 16 347 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-2 0-1 0 0,8 2 0 0 0,-11 0-30 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 2 0 0 0,0-3-2 0 0,-3 107 192 0 0,-1-28-188 0 0,10 26-57 0 0,-4-101 11 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 1 0 0 0,6 10-1 0 0,-7-15 14 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 0 0 0 0,49 5 27 0 0,-50-6-22 0 0,43 2 54 0 0,-1-2 0 0 0,54-7 0 0 0,-98 7-35 0 0,99-14 140 0 0,-102 13-164 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-4 0 0 0,1-10-25 0 0,-1 2 0 0 0,0 1 0 0 0,-1-2 0 0 0,-3-21 1 0 0,0 7 73 0 0,4-131 387 0 0,-1 161-411 0 0,13-4-9 0 0,-11 4-1 0 0,17-6 37 0 0,0 2 0 0 0,1 0 0 0 0,21 0 0 0 0,151 0 86 0 0,-85-2-115 0 0,59-2 133 0 0,-164 6-129 0 0,0 2-1 0 0,-1 0 1 0 0,1 2 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 1 0 0 0,-2-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 1 0 0 0,2 9 29 0 0,-1 0 1 0 0,1 0-1 0 0,3 24 1 0 0,-7-32-33 0 0,6 30-22 0 0,3 12 22 0 0,3 75 0 0 0,-10-77 15 0 0,-2-44-31 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,4 1-26 0 0,9 3 21 0 0,-1-1-1 0 0,1-2 1 0 0,1 1-1 0 0,-1 0 1 0 0,18-1 0 0 0,76-6 41 0 0,-36 0-29 0 0,43 3 157 0 0,-106 3-164 0 0,-6-1 2 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,2 0 1 0 0,-2 0-11 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-2 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-3 0 0 0,-1 0-11 0 0,4-9 19 0 0,-2 0-1 0 0,0 2 0 0 0,0-2 1 0 0,-1-1-1 0 0,0 1 0 0 0,-2-25 0 0 0,5-28 70 0 0,-4 55-50 0 0,-1 11-12 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,8-10 0 0 0,18-17 2 0 0,-26 27-4 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,5-1 0 0 0,9-2 7 0 0,-5 0 3 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,21 1 0 0 0,24-2-39 0 0,128-5 31 0 0,19-3 19 0 0,-123 4 33 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1168.58">906 298 4072 0 0,'0'0'3257'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1400.15">926 642 5553 0 0,'0'0'2104'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1496.04">950 907 6001 0 0,'0'0'1472'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1588.15">950 907 7473 0 0,'0'0'0'0'0,"7"66"-1976"0"0,-9-51 1976 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1685.07">912 1260 7913 0 0,'0'0'144'0'0,"8"73"8410"0"0,-2-45-8042 0 0,-2-8-592 0 0,-1 5-352 0 0,1 15-456 0 0,0-7-1881 0 0,1-4-4144 0 0,-2-14 6913 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2764.7">2125 206 4192 0 0,'0'0'4081'0'0,"-18"57"1080"0"0,10-21-11418 0 0,1-13-392 0 0,1 6 6649 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2950.25">2077 551 2736 0 0,'0'0'2977'0'0,"15"57"6001"0"0,-15-49-11683 0 0,0 21-6873 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3137.58">2075 905 8153 0 0,'0'0'6706'0'0,"-5"61"-8331"0"0,5-50-8129 0 0,3-2 9754 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3303.23">2081 1233 8977 0 0,'0'0'1105'0'0,"-21"73"7440"0"0,18-46-8945 0 0,3-10-1504 0 0,-1 6-10891 0 0,-4 14 12795 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4380">1123 1761 5273 0 0,'-9'6'3796'0'0,"-29"16"3759"0"0,36-21-7489 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,1 2 0 0 0,-2-2 124 0 0,3 2-275 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,8 3 0 0 0,17 9-9270 0 0,-26-14 7891 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5028.51">1083 1870 824 0 0,'12'-3'5900'0'0,"44"-5"2323"0"0,-14 3-5892 0 0,320-14-727 0 0,-9-2-1235 0 0,-337 19-357 0 0,0 0 0 0 0,25-7 0 0 0,-34 5-603 0 0,-10 1 341 0 0,1 1 123 0 0,-5-3 128 0 0,-2 2 0 0 0,2-2 0 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-14-5 0 0 0,108 32 1422 0 0,-78-22-1345 0 0,3 2 104 0 0,-11-4-174 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-29 29-1382 0 0,1-5 0 0 0,-53 41-1 0 0,53-44 729 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6100.41">1279 2242 5713 0 0,'0'0'4185'0'0,"8"86"6361"0"0,-8-55-10546 0 0,0-2-104 0 0,0 12-72 0 0,4-5-192 0 0,0-16-424 0 0,-3-13-1017 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6483.49">1225 2317 5329 0 0,'13'-8'5332'0'0,"0"0"-3717"0"0,3-1-386 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,21-6-1 0 0,-7 7-833 0 0,-3 5-207 0 0,-25 3-174 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2 5 0 0 0,-2-6-11 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 1 0 0,-3 1-1 0 0,-5 4-137 0 0,-1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-3 0 0 0 0,1-1 0 0 0,-15 2 1 0 0,-19-4-9905 0 0,38-2 8933 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6793.46">1574 2250 8497 0 0,'0'0'4617'0'0,"29"74"2897"0"0,-29-58-7602 0 0,0-11-96 0 0,-2 3-88 0 0,-3 9-408 0 0,-2-3-1065 0 0,3-7-2800 0 0,4-6 4545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7119.4">1585 2147 7801 0 0,'7'7'3972'0'0,"22"21"1736"0"0,-29-28-5659 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-61 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-25-11-2641 0 0,6 6-5066 0 0,16 4 6449 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7383.69">1752 2117 5969 0 0,'0'0'9850'0'0,"6"58"-3889"0"0,-4-30-5441 0 0,-2-6-312 0 0,2 1-184 0 0,-4 17-144 0 0,2-6-120 0 0,2-14-280 0 0,0-11-440 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7598.6">1641 2281 7881 0 0,'0'0'4345'0'0,"53"-18"-4145"0"0,-8 9-1408 0 0,-7 5-2097 0 0,-10 6 3305 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11953.2">2049 2305 1480 0 0,'-10'-2'5244'0'0,"5"1"-3800"0"0,-2-1 732 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-10 1 0 0 0,-7 4-295 0 0,23-1-1833 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 2-1 0 0,0 4 0 0 0,2-8-73 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,1 0 1 0 0,8 1-921 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,12-2 1 0 0,9-5-4686 0 0,-10-3 4376 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12464.16">2170 2179 3848 0 0,'-3'10'6823'0'0,"-10"56"4843"0"0,10-47-11203 0 0,1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,4 28-1 0 0,-3-47-465 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,16-15-79 0 0,-16 15 75 0 0,14-15-74 0 0,-10 11 55 0 0,0-2-1 0 0,1 2 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,6-3-1 0 0,-7 11 79 0 0,3 4-17 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,0 1 0 0 0,6 12 0 0 0,7 18-5249 0 0,10-32-10865 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13708.84">1777 2228 2872 0 0,'1'8'4627'0'0,"2"32"6572"0"0,-3 35-6574 0 0,0-35-4684 0 0,0-39-75 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 2-1 0 0,-1-2 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,26 0-4285 0 0,-4-3-3755 0 0,-12-1 6397 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14097.65">1745 2276 4705 0 0,'0'0'2768'0'0,"66"4"6970"0"0,-50-6-9386 0 0,-9 2-328 0 0,7-4-216 0 0,16 0-216 0 0,-7 1-1560 0 0,-6 1-9091 0 0,-11 2 11059 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4221,89 +4236,89 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6705 1093 1368 0 0,'0'0'4633'0'0,"-72"73"-392"0"0,-15 22-4273 0 0,15 1-536 0 0,29-40-2305 0 0,-10 14-2872 0 0,-1 20 5745 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="249.83">7113 1143 6585 0 0,'0'0'888'0'0,"-69"67"2257"0"0,-48 58-2065 0 0,-20 24 88 0 0,4-13-1360 0 0,-1-18-944 0 0,12 11-1393 0 0,38-21-2112 0 0,-5 33 4641 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.91">7112 1648 4016 0 0,'0'0'2497'0'0,"-112"78"4304"0"0,-11 18-6313 0 0,0 11-215 0 0,-27 33-233 0 0,41-26-681 0 0,1 20-2215 0 0,38-40-1681 0 0,31-41-912 0 0,24-22 5449 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.4">7095 2110 7625 0 0,'0'0'6009'0'0,"-124"111"-5136"0"0,-149 114-1 0 0,116-118-712 0 0,30 5-368 0 0,12 0-592 0 0,23-12-2985 0 0,-5 5-808 0 0,57-46-928 0 0,36-34 5521 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1002.94">7051 2671 5329 0 0,'0'0'4345'0'0,"-73"85"232"0"0,-92 66-4177 0 0,-29 1-128 0 0,77-54-336 0 0,17-5-464 0 0,58-49-3369 0 0,28-26-3617 0 0,10-9 7514 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1130.96">6990 3121 7033 0 0,'0'0'440'0'0,"-107"101"7434"0"0,-6-23-7546 0 0,-24 12-672 0 0,30-10-1633 0 0,66-42-9297 0 0,25-19 11274 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12998.52">6127 1102 2736 0 0,'-1'17'3996'0'0,"-2"36"3538"0"0,-3 34-3241 0 0,-3 125-3309 0 0,18-16-213 0 0,-1 13-149 0 0,-11 64-155 0 0,-1 8-378 0 0,3-248-676 0 0,2-5 1 0 0,8 64-1 0 0,-9-87-2390 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12250.44">6040 1082 2312 0 0,'14'-1'4532'0'0,"71"-7"3253"0"0,44 2-5414 0 0,329-14-1077 0 0,-118 23-915 0 0,-174-1-374 0 0,-113 0 44 0 0,-30-1-1129 0 0,5-1-3710 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11739.01">7336 1051 7657 0 0,'-2'21'3164'0'0,"-6"77"3871"0"0,-3 361-4046 0 0,3-48-2462 0 0,2-305-450 0 0,-15 294 275 0 0,-17 94 227 0 0,12-182-476 0 0,14-134-583 0 0,11-170-729 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-4 10 1 0 0,-5 6 49 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10838.98">6061 2578 2920 0 0,'0'27'3907'0'0,"1"-14"-2274"0"0,2 142 6695 0 0,14 122-6239 0 0,49 167-1390 0 0,-65-440-676 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0-3 0 0 0,0 1 0 0 0,3-1 0 0 0,-3 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,39 5 152 0 0,2-2 1 0 0,58-3-1 0 0,-44 0-20 0 0,139-6 366 0 0,-101 0-334 0 0,106 10 1 0 0,-186-2-308 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9760.94">6014 2178 1328 0 0,'-21'1'2941'0'0,"-57"3"4689"0"0,-11 2-3950 0 0,-191 25-2457 0 0,-43 24-1275 0 0,292-53-402 0 0,29-2-567 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9246.94">6078 2526 5161 0 0,'-32'1'4082'0'0,"-128"3"2275"0"0,-224 15-4309 0 0,230-7-1350 0 0,80-3-389 0 0,24-6-2851 0 0,-34 0-10200 0 0,92-3 10595 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8579.49">5133 2317 2216 0 0,'0'0'2889'0'0,"-8"145"9265"0"0,2-98-11850 0 0,4-25-144 0 0,-2 0-200 0 0,-5 36-112 0 0,6-16-352 0 0,3-24-976 0 0,0-9 1480 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7438.79">5154 1975 3480 0 0,'-6'29'4372'0'0,"-20"135"4018"0"0,10 39-6733 0 0,17-52-1746 0 0,27 209 1 0 0,-22-294-629 0 0,-5-25-6444 0 0,-1-35 6022 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7131.86">5069 2973 4929 0 0,'0'0'960'0'0,"-157"-9"5097"0"0,70 15-4969 0 0,33-2-176 0 0,13 0-743 0 0,-22 2-282 0 0,-11-5 57 0 0,18-2 32 0 0,21-1-464 0 0,22-4-2896 0 0,-5 0-4962 0 0,0 0 8346 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6742.87">5037 2027 680 0 0,'11'-12'3282'0'0,"35"-42"4857"0"0,-45 53-7825 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,3-4 1 0 0,-12 4-482 0 0,4 3 509 0 0,-36-4-283 0 0,0 2-1 0 0,-74 7 1 0 0,-89 22-201 0 0,12 0-356 0 0,191-28 457 0 0,-19 1-916 0 0,7 0-3196 0 0,10-1 3330 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6395.95">4516 2015 1656 0 0,'-6'20'5877'0'0,"-21"76"2567"0"0,23-78-7663 0 0,2 3 0 0 0,-2 33-1 0 0,3 42-152 0 0,-3 97 388 0 0,-1-115-797 0 0,-3 11-250 0 0,8 164 1 0 0,9-207-2209 0 0,-6-33-564 0 0,-2-5 1927 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33632.18">4480 1180 7657 0 0,'-5'22'3999'0'0,"-16"67"2962"0"0,16-34-5170 0 0,5-48-1751 0 0,-1-5-36 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 2 0 0 0,3-7-157 0 0,42-75-121 0 0,7-5 57 0 0,-55 83 223 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-3 0 0 0,0 3 0 0 0,0-1 0 0 0,1 1 1 0 0,3 8 78 0 0,-4-4-45 0 0,7 15 23 0 0,-1 1-1 0 0,-1 2 1 0 0,-1-2 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1 25 0 0 0,-2-23 43 0 0,2-28-7 0 0,31-87 25 0 0,-24 59-175 0 0,18-42-1 0 0,-21 64 33 0 0,-8 11 22 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,6 22-171 0 0,-1-1 1 0 0,-2 2-1 0 0,0-3 0 0 0,-1 2 1 0 0,-4 46-1 0 0,-5-30-10828 0 0,2-14 9252 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33917.03">4947 1316 9073 0 0,'0'0'5802'0'0,"-53"87"-1441"0"0,20-30-4441 0 0,13-15-304 0 0,9-25-321 0 0,-9 22-1727 0 0,-2 0-5986 0 0,16-16 8418 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34459.07">5096 1082 11498 0 0,'-9'21'4876'0'0,"-26"68"-1139"0"0,31-77-3533 0 0,1-2 0 0 0,0-1 1 0 0,-1 17-1 0 0,3-21-188 0 0,1 0 1 0 0,-1 0-1 0 0,1 2 1 0 0,1-2-1 0 0,-1 0 0 0 0,2 7 1 0 0,-2-11-16 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,5 1-15 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-3-1 1 0 0,3 1-1 0 0,-1-1 1 0 0,0-3-1 0 0,-1 3 0 0 0,1-1 1 0 0,-1 0-1 0 0,2 1 1 0 0,-2-2-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2-1 1 0 0,1-3-1 0 0,4-7 0 0 0,-7 12 15 0 0,2-1 8 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-10 0 0 0,0 14-6 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-5 15 57 0 0,2-4-21 0 0,1 2 1 0 0,1 1-1 0 0,1 25 0 0 0,0-36-13 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 3 0 0 0,1-3 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,-5-7-7 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 2-1 0 0,-1-2 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-4 0 0 0,-4 0-6 0 0,0 2 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 3 0 0 0,1-3 1 0 0,-1-2-1 0 0,0 2 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-8 0 0 0,-1 6-406 0 0,0-1 0 0 0,0 3 0 0 0,0-3 0 0 0,-1-1 0 0 0,0 2 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6-8 0 0 0,4 8-5409 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35015.64">5456 1207 4312 0 0,'0'13'8879'0'0,"1"11"-5708"0"0,0-2-870 0 0,-3 45 0 0 0,15-86-2369 0 0,0-5 50 0 0,-5 8 21 0 0,1-2 0 0 0,0 3 0 0 0,1 0 0 0 0,1 2 0 0 0,13-18 0 0 0,-23 31-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 12 36 0 0,4 21 69 0 0,-2-1-1 0 0,2 41 0 0 0,-8-73-99 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 36 0 0,11-17 33 0 0,18-34 0 0 0,-18 30 46 0 0,23-28 0 0 0,-37 51-123 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,3 2-59 0 0,41 60-1251 0 0,-31-34-3583 0 0,-5-4-6647 0 0,-6-8 8455 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4146.03">4525 4611 2040 0 0,'0'24'3973'0'0,"-3"61"4267"0"0,1 13-3796 0 0,3 373-2116 0 0,-4-238-1675 0 0,-2-28-179 0 0,29 133 272 0 0,-2-52-352 0 0,-23-259 3 0 0,-3 44 1 0 0,-1-26-2111 0 0,3-4-6004 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3728.66">4550 4531 4368 0 0,'0'0'5210'0'0,"141"-14"647"0"0,-44 9-5241 0 0,-27-1-384 0 0,-11-2-368 0 0,-19 5-248 0 0,-5 3-664 0 0,-14 0-3425 0 0,-10 0-1457 0 0,13 8 5930 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3270.03">5136 4543 3624 0 0,'-5'22'5760'0'0,"-14"69"2097"0"0,15-72-7119 0 0,2-3 1 0 0,0 30-1 0 0,-4 167 395 0 0,5 127-489 0 0,20-145-378 0 0,6 181-2 0 0,-15-201-183 0 0,-4-122-41 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3119.3">5164 6124 21940 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3028.96">5167 6174 21988 0 0,'18'66'24'0'0,"-4"-5"-24"0"0,-4-30 8 0 0,16 12 16 0 0,5 19 32 0 0,-17-15 0 0 0,-5-18 0 0 0,-6-19-32 0 0,-3-5-24 0 0,1 1 0 0 0,-1 6 8 0 0,0 1 32 0 0,0-5 32 0 0,-101 23-8 0 0,42-25-72 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2920.56">5087 6614 22380 0 0,'-69'3'-48'0'0,"1"4"0"0"0,12-2 0 0 0,20-4 16 0 0,-11 2 16 0 0,-2-3 8 0 0,17-3-40 0 0,21-1-144 0 0,7 3-96 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4883.96">5155 5418 408 0 0,'22'0'2379'0'0,"134"-1"7293"0"0,658 1-7493 0 0,-402 1-1836 0 0,-1-24-176 0 0,-51-2-168 0 0,-212 13-139 0 0,-117 9-3692 0 0,-1 0-3859 0 0,-25 3 5911 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.42">5108 5737 1960 0 0,'13'-1'5024'0'0,"70"-3"488"0"0,17 1-3483 0 0,-40 2-1662 0 0,39-4 152 0 0,1181-26 1574 0 0,-1192 32-2066 0 0,162-17 0 0 0,-142 1-459 0 0,-2 1 0 0 0,154 7 1 0 0,-220 8-1828 0 0,-23-2 1729 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6613.6">4472 5490 1016 0 0,'-33'4'2871'0'0,"-14"4"547"0"0,-143 28 3951 0 0,46-17-6767 0 0,-675 36-224 0 0,467-31-464 0 0,133 8 60 0 0,-19 3 43 0 0,82-19-22 0 0,-40 5-126 0 0,142-20-2326 0 0,48-1-4068 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7319.04">4500 5769 1176 0 0,'-25'0'3594'0'0,"-88"2"3784"0"0,-8 3-3472 0 0,-270 22-3138 0 0,164-11 6 0 0,-426 4-642 0 0,43-3-361 0 0,446 5-1726 0 0,160-22-1203 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8218.08">2161 5476 2408 0 0,'-2'18'6507'0'0,"-6"108"539"0"0,16 99-5411 0 0,-2-145-963 0 0,-5-75-681 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9291.1">2102 5516 528 0 0,'-7'20'4095'0'0,"-21"73"5639"0"0,24-68-9237 0 0,1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 0 0 0 0,5 32 0 0 0,26 116-582 0 0,-29-162 174 0 0,11 43-74 0 0,-6-26 164 0 0,-1-4-1 0 0,-2 1 1 0 0,2 35-1 0 0,-6-60-173 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-80-4 231 0 0,45 1-229 0 0,-36 1-6 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9427.75">1888 6180 18523 0 0,'-128'8'160'0'0,"108"-11"-74"0"0,19 3-82 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-5 21 0 0,40-119 177 0 0,19-64 134 0 0,-51 153-256 0 0,-2 1 0 0 0,-2-2 0 0 0,2-52-1 0 0,-8 66-36 0 0,-1-1 1 0 0,-4-24-1 0 0,-9-25-262 0 0,11 57-673 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9659.81">1784 5493 8129 0 0,'12'28'2866'0'0,"-7"-16"-2129"0"0,23 51 3037 0 0,48 74 0 0 0,-31-72-3362 0 0,-14-13-234 0 0,25 63 1 0 0,18 22-225 0 0,-40-89-1684 0 0,-11-28-6471 0 0,-8-13 6714 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10209.58">2034 5589 5617 0 0,'-12'20'4951'0'0,"-44"96"2023"0"0,-49 92-5412 0 0,60-117-1710 0 0,-8 21-157 0 0,24-31-5812 0 0,24-68-4713 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10514.67">1803 5600 6625 0 0,'0'0'3713'0'0,"85"-8"3320"0"0,0 8-6569 0 0,-24-3-368 0 0,-28 3-872 0 0,-13 0-5281 0 0,11 3 6057 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11649.14">7536 5218 4016 0 0,'-4'18'4253'0'0,"-12"76"4202"0"0,-38 259-5823 0 0,51-325-2636 0 0,1 0 0 0 0,3 42 1 0 0,1-7-287 0 0,-6-51-1449 0 0,-3-4-4018 0 0,4-6 4696 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12252.48">7408 5253 7769 0 0,'17'-10'4388'0'0,"40"-19"-1288"0"0,108-40-1 0 0,-116 53-2748 0 0,27-14 386 0 0,-74 30-716 0 0,8 39 131 0 0,-3 24-49 0 0,-3 103 0 0 0,-1-7 37 0 0,2-91-24 0 0,3-1 0 0 0,33 132 0 0 0,-38-192-55 0 0,0 2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 3 0 0 0,-1-3 0 0 0,-1 15 0 0 0,-10-13 114 0 0,-5-3-173 0 0,0-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 0 0 0 0,1-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-19-4 0 0 0,1-9-329 0 0,-56-25-1097 0 0,58 20-1191 0 0,25 12-836 0 0,4-4-3518 0 0,6 4 5003 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12584.67">7450 5349 9546 0 0,'0'0'5201'0'0,"125"177"744"0"0,-84-88-5945 0 0,-5-19-24 0 0,5-15 8 0 0,-6-3-88 0 0,-14-15-88 0 0,-7-14-992 0 0,-7-13-1705 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12863.65">7791 5199 8705 0 0,'0'0'8162'0'0,"-122"133"-5505"0"0,95-40-2489 0 0,1 2 8 0 0,7-20-152 0 0,-11 14 0 0 0,-13-4-64 0 0,3-14-56 0 0,13-24-192 0 0,16-25-2161 0 0,5-11-10122 0 0,6-1 12571 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13729.22">7793 5462 1224 0 0,'26'4'4871'0'0,"113"13"5232"0"0,-23-11-8058 0 0,415-22-1165 0 0,-262 7-746 0 0,-36 2-59 0 0,228-11 29 0 0,-417 14-2260 0 0,-40 3-1106 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14332.66">7888 5700 1896 0 0,'-14'-1'2241'0'0,"-7"-1"-725"0"0,9 0-245 0 0,0 1 0 0 0,-1 0 1 0 0,-25 5 3505 0 0,47 0-3713 0 0,27 7-226 0 0,6-4-319 0 0,0 1 1 0 0,83-1 0 0 0,107-13 270 0 0,-145 3-580 0 0,466-16 474 0 0,-63-15-138 0 0,-439 30-585 0 0,-28 3-930 0 0,3-1-1 0 0,31-6 0 0 0,-38 0 602 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15360.63">1829 5744 2216 0 0,'-18'0'4672'0'0,"-349"10"5675"0"0,-531 2-10642 0 0,819-11 886 0 0,-110 6 193 0 0,57-2-2992 0 0,49-4-8837 0 0,156 1 8807 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15876.94">1737 5958 3208 0 0,'14'-1'2551'0'0,"34"-2"4414"0"0,-90 12-3515 0 0,-508 46-1147 0 0,460-48-2170 0 0,17-1-79 0 0,-445 17-207 0 0,506-23-377 0 0,-48-4-102 0 0,40 1-3219 0 0,2-2-4221 0 0,12 3 6030 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78813.95">9536 4160 776 0 0,'-2'24'3341'0'0,"-9"123"4773"0"0,4 8-3751 0 0,-3 338-3978 0 0,3-92-204 0 0,-22 223-115 0 0,10-219-154 0 0,16-295-322 0 0,3-60-7513 0 0,0-48 6807 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79559.05">9442 3926 1112 0 0,'0'0'1040'0'0,"106"-49"8234"0"0,-61 33-9202 0 0,-19 5-368 0 0,-19 7-328 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80001.48">9642 3972 2552 0 0,'-6'18'3606'0'0,"-27"128"2796"0"0,-1 115-4875 0 0,27-119-1439 0 0,3 596-109 0 0,14 224-39 0 0,-10-748 432 0 0,-2-39-1258 0 0,9-59-4889 0 0,-4-104 4891 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80588.89">9435 6320 576 0 0,'0'0'952'0'0,"-3"109"2345"0"0,-5 32-1713 0 0,-6-46-112 0 0,6-34-408 0 0,8-18-239 0 0,3 10-385 0 0,-3 1 96 0 0,2-25 16 0 0,3-21-104 0 0,4-7 272 0 0,5-2 248 0 0,52-21-472 0 0,-2 0-952 0 0,-19 10-2496 0 0,-17 7 2952 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81521.19">250 4719 1528 0 0,'8'24'2845'0'0,"13"62"4313"0"0,-9 13-3404 0 0,-6 107-2247 0 0,-14 230-1330 0 0,1 230-162 0 0,-21 97-273 0 0,17-641 65 0 0,-1 2-3527 0 0,11-113 1306 0 0,0-13 348 0 0,-2-40 1062 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82339.02">163 4627 5665 0 0,'-16'10'1792'0'0,"-9"1"-204"0"0,15-6-1024 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,-10 11 1 0 0,15-14-488 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 3 0 0 0,0-2 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 9 0 0 0,-2 7 112 0 0,-7 79 490 0 0,8 131 0 0 0,24 100-280 0 0,3 117-208 0 0,3 297 13 0 0,-22-670-151 0 0,-3-2 1 0 0,-7 120-1 0 0,0-32 100 0 0,4-109-99 0 0,-2-36-17 0 0,0-1 0 0 0,1-2 0 0 0,6 30 0 0 0,-2-35-44 0 0,21-5-237 0 0,-7-2-245 0 0,-1 0 0 0 0,1-2-1 0 0,22-2 1 0 0,-21 0-849 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-2-1 0 0,0-2 0 0 0,37-17 0 0 0,60-51-627 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83769.34">9623 7557 1072 0 0,'5'31'4445'0'0,"-4"-20"-3396"0"0,5 28 5016 0 0,0 75 1 0 0,-12-35-5071 0 0,6-77-985 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 4 1 0 0,1-3-1 0 0,-1 0 0 0 0,0-2 0 0 0,0 3 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,2 1-1 0 0,3 3 20 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,3-1-1 0 0,13 3 0 0 0,14 4 34 0 0,-1-4 1 0 0,2-4-1 0 0,37 2 1 0 0,120-9 64 0 0,-124 4-93 0 0,26-2 15 0 0,157-12 8 0 0,-198 10 8 0 0,-1-3 0 0 0,87-26 1 0 0,-142 34-71 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-6-4-53 0 0,-22-20-194 0 0,-39-29 0 0 0,52 44 194 0 0,0-1 1 0 0,-1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-21-6-1 0 0,27 10 90 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-12 2 0 0 0,21-4-31 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 3-1 0 0,-1-3 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,49 11 144 0 0,4-5-94 0 0,12 1 93 0 0,113 26 0 0 0,-172-32-117 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 4 0 0 0,1 1 1 0 0,-1 0 7 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 2 0 0 0,0-4 0 0 0,0 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,-4 10 0 0 0,1-7-18 0 0,0 1 0 0 0,-1-3 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-10 10 1 0 0,-78 56-933 0 0,51-45-210 0 0,-25 22-2841 0 0,47-35-347 0 0,-4 2-3803 0 0,16-11 5577 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84721.29">11211 7918 5857 0 0,'0'0'2792'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84991.95">11206 7918 8649 0 0,'-20'117'11277'0'0,"20"-113"-11125"0"0,-1 0 0 0 0,1 1 0 0 0,-1 1-1 0 0,1-2 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-3 1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6-1 0 0,-3-9-147 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,2 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,3-1-40 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,5-5 0 0 0,-5 4 46 0 0,1 0 0 0 0,-1 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,-2 0 1 0 0,0-3 0 0 0,1 3-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 2-1 0 0,1-14 1 0 0,-3 29 39 0 0,0-2 0 0 0,1-3 0 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 2 0 0 0,0-2 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 2 0 0 0,1-3 0 0 0,-1 0 0 0 0,3 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,15 3 0 0 0,-8-4 1 0 0,1 0 1 0 0,-2 0-1 0 0,24-3 0 0 0,-32 1-35 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-2-1-1 0 0,2-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-5 1 0 0,-9 4-21 0 0,1 2-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-3-3-1 0 0,-1-7-107 0 0,-1 2 0 0 0,0 2 0 0 0,-1-1 0 0 0,-5-7 0 0 0,10 14 85 0 0,-49-44-1191 0 0,14 20-2564 0 0,19 14-4515 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85404.37">11790 7712 11298 0 0,'-2'24'4157'0'0,"1"-7"-2982"0"0,-6 169 5447 0 0,12-127-6416 0 0,-5-58-203 0 0,12 59-11 0 0,-12-57 2 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,0 3-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4 3-1 0 0,-5-4 3 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,19-17-17 0 0,6-15 20 0 0,-17 19 23 0 0,1 1 0 0 0,1 0-1 0 0,0 2 1 0 0,-2-1 0 0 0,26-18 0 0 0,-35 29-16 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,21 25 46 0 0,-4 2-472 0 0,-2 1 1 0 0,-1 2-1 0 0,-1-2 1 0 0,16 43-1 0 0,-31-66-2764 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85794.9">12332 8108 10562 0 0,'21'-10'2956'0'0,"1"2"-1834"0"0,111-55 2790 0 0,-131 63-3922 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-13-4 35 0 0,8 6-33 0 0,-4-3 130 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 3 1 0 0,-2-1-1 0 0,3 1 0 0 0,-2 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-13 1 0 0 0,17 0 0 0 0,0 1-1 0 0,2 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 2 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-3 8-1 0 0,4-8-102 0 0,-3 8 13 0 0,1-2 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 18-1 0 0,2-25-65 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,3-1 1 0 0,20 1-883 0 0,0 0 0 0 0,-1-2-1 0 0,1-1 1 0 0,0-1 0 0 0,29-7-1 0 0,-23 4-4468 0 0,53-21-1 0 0,-28-3 3352 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86301.5">12727 8091 13554 0 0,'25'-8'1770'0'0,"8"-2"-555"0"0,-14 6-687 0 0,-2-2 0 0 0,2 0 0 0 0,-1-4 0 0 0,-1 2 0 0 0,16-11 0 0 0,-30 17-547 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-3 1 0 0,0 3-1 0 0,1-5 0 0 0,-1 7 22 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-1 0 101 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,2 0 0 0 0,-2 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-11 4 0 0 0,12-4-57 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-2 0 0 0,0 3 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,2 6 0 0 0,-1-6-45 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,0-2 0 0 0,0 0 1 0 0,1-1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1-2-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-2-1-1 0 0,15 1 1 0 0,0 0-68 0 0,0-2-1 0 0,0 0 1 0 0,3-2 0 0 0,-3 0 0 0 0,20-3 0 0 0,-29 2 19 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-3 1 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-3 1 0 0,8-7-1 0 0,-3-2 29 0 0,2-3 0 0 0,-2 2 0 0 0,-3 1 0 0 0,1-3 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 2-1 0 0,-1-5 1 0 0,-1 3 0 0 0,0-2 0 0 0,-2 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0 0-1 0 0,-1-40 1 0 0,-3 55 82 0 0,-4-32 336 0 0,5 37-346 0 0,0 1-1 0 0,-1-3 0 0 0,1 3 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2-2 0 0 0,2 2-25 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-19 33 250 0 0,11-12-274 0 0,0-1 1 0 0,2 2 0 0 0,1-1-1 0 0,2 3 1 0 0,0-4 0 0 0,1 2 0 0 0,1 2-1 0 0,1-3 1 0 0,1 1 0 0 0,1 2-1 0 0,2-4 1 0 0,0 2 0 0 0,8 33-1 0 0,-2-33-1070 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95338.1">7077 8801 9257 0 0,'1'20'5313'0'0,"1"6"-3150"0"0,14 140 2887 0 0,4-93-4801 0 0,-16-61-298 0 0,-1-2 1 0 0,-1 2-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 3 0 0 0,0-2 1 0 0,-1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 3-1 0 0,-5 12 1 0 0,6-22-5 0 0,2 10-798 0 0,9-19 555 0 0,19-21 377 0 0,-22 16-148 0 0,12-9 82 0 0,-2 1 0 0 0,1 2 0 0 0,0 2 0 0 0,2-2 0 0 0,25-17 0 0 0,-42 31 6 0 0,-2 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 5 0 0 0,1-3 13 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 3 1 0 0,-1 6-1 0 0,-1-10-20 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 2 0 0 0,1-2-1 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-9 3-1 0 0,-54 24-62 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95428.93">7229 9367 21492 0 0,'-49'-20'-1016'0'0,"25"3"-304"0"0,3-29-2001 0 0,15-29-6329 0 0,33 25 9650 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95940.62">7526 9198 8585 0 0,'26'-1'3651'0'0,"-24"0"-3500"0"0,24 0 1374 0 0,-3-2 0 0 0,3-1 0 0 0,36-7-1 0 0,-48 8-1429 0 0,0-3 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,0-4 0 0 0,13-7 0 0 0,-25 16-94 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-2 0 0 0,0-2 10 0 0,1 2 3 0 0,0 0 0 0 0,-1-2 0 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,1 1 31 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-5 0-1 0 0,0 1 61 0 0,0 1 0 0 0,0-1 0 0 0,-2 1 0 0 0,3 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8 7 0 0 0,10-5-39 0 0,1 2 0 0 0,0-2-1 0 0,0 0 1 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 8 0 0 0,0-5-112 0 0,1 2-1 0 0,0 3 1 0 0,1-4 0 0 0,1 2 0 0 0,4 26 0 0 0,-4-38-6 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 2-1 0 0,2-1-121 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,9-1 0 0 0,14-1-940 0 0,50-11 1 0 0,-35 4-2189 0 0,0-3 0 0 0,43-22 0 0 0,-47 17 1245 0 0,-2 1 0 0 0,54-39 1 0 0,-70 43 3526 0 0,-2-4 1 0 0,29-28-1 0 0,-42 37-169 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,1-2-1 0 0,-4 1 1 0 0,11-15 0 0 0,-11 13 2397 0 0,-13 7-2752 0 0,4 3-283 0 0,-1-2-554 0 0,-2 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-2 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-3-1 0 0,1 3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-2 0 0 0,-12 14 0 0 0,17-14-118 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 5-1 0 0,-10 70-101 0 0,11-76 100 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 1-1 0 0,0-2 1 0 0,1 4 0 0 0,-1-6 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2 0-1 0 0,2-1-23 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-4 0 0 0,22-13-39 0 0,-1 1 0 0 0,-1-1 1 0 0,-2-4-1 0 0,42-35 0 0 0,-70 58 94 0 0,1 0-1 0 0,0-3 0 0 0,-1 3 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 3 1 0 0,-1-3-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 36 0 0,18 26-490 0 0,16 25-750 0 0,-21-38-2915 0 0,1-2-3311 0 0,-10-13 5700 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96241.65">8387 8978 9642 0 0,'6'19'8028'0'0,"4"20"-5082"0"0,29 87 530 0 0,-34-133-3606 0 0,19-44-150 0 0,16-30-237 0 0,-5 33-3053 0 0,-33 46 2886 0 0,-2 1 174 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,59 5-1430 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96459.32">8784 9026 9610 0 0,'0'0'9410'0'0,"-19"112"-3769"0"0,15-60-5641 0 0,4-18-248 0 0,0-25-416 0 0,0-6-1145 0 0,4-28-17019 0 0,21-63 18828 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96646.2">8795 8663 2640 0 0,'0'0'5921'0'0,"-66"112"3569"0"0,78-82-9002 0 0,-6-23-31 0 0,7-5-313 0 0,24-7-304 0 0,-11-16-305 0 0,-16 3-1287 0 0,-7 7-5625 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97708.19">9034 9045 11258 0 0,'19'-16'8062'0'0,"9"-12"-6041"0"0,70-56 755 0 0,-98 84-2773 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,2 0-1 0 0,-3-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,4 32-17 0 0,-5-23-8 0 0,1 17-42 0 0,-1-9-154 0 0,1 3 0 0 0,0-3 0 0 0,1 0 0 0 0,1 1 0 0 0,1 2 0 0 0,10 20 0 0 0,-11-35-41 0 0,2 2 1 0 0,-1-3-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,9 3 0 0 0,0 3-52 0 0,-4-2 146 0 0,1-2 0 0 0,0 1 1 0 0,-1-3-1 0 0,2 2 0 0 0,15 1 0 0 0,-22-4 161 0 0,2-1 0 0 0,-3 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,3 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,8-8 0 0 0,2-1 134 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-3 0 0 0,11-19 0 0 0,-19 26 15 0 0,1-1 0 0 0,-2 1-1 0 0,0-2 1 0 0,1 0-1 0 0,-2-2 1 0 0,1 2 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 2-1 0 0,2-23 1 0 0,-3 30-104 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4 0 18 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-11 4 0 0 0,13-2-53 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,0-2-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,1 2 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 7 0 0 0,1 0-18 0 0,1 1-1 0 0,0-1 0 0 0,0-2 1 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,1 1 0 0 0,0-1 1 0 0,5 12-1 0 0,-7-22 7 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 3 1 0 0,2-2 0 0 0,0-1-7 0 0,-1-1 1 0 0,0-2-1 0 0,1 2 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3-3 0 0 0,78-84-116 0 0,-82 89 127 0 0,13-9 36 0 0,-11 10-30 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,18 47 155 0 0,-3-4 0 0 0,1 2 0 0 0,-5 4 1 0 0,8 63-1 0 0,-15-73-17 0 0,-2 1 1 0 0,-4 64-1 0 0,0-85-118 0 0,-2-1 1 0 0,0 0-1 0 0,-2-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-13 26 0 0 0,18-44-45 0 0,-2 1-1 0 0,1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 2 1 0 0,-4 0-1 0 0,5-4-11 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-3 0 0 0,0 3 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-3 0 0 0,-6-4-66 0 0,1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-2 0 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-22 1 0 0,1 6-140 0 0,2-1-1 0 0,0 2 1 0 0,2 0-1 0 0,2 0 1 0 0,0 0-1 0 0,16-49 1 0 0,-14 55 42 0 0,2 4 0 0 0,0 0 0 0 0,2-4 1 0 0,0 4-1 0 0,1 2 0 0 0,0 0 0 0 0,2-4 1 0 0,0 4-1 0 0,1 0 0 0 0,0 3 1 0 0,1-2-1 0 0,1-1 0 0 0,2 3 0 0 0,0 1 1 0 0,-1 2-1 0 0,26-18 0 0 0,4 7 520 0 0,1 2 1 0 0,61-18-1 0 0,-108 38-244 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 2-1 0 0,0-2 1 0 0,0 0 0 0 0,0 2-1 0 0,2 2 215 0 0,4 13 38 0 0,1 4-87 0 0,-1 3-1 0 0,2-5 0 0 0,2 0 1 0 0,0 4-1 0 0,1-3 0 0 0,15 19 1 0 0,-25-39-175 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,-20 23 149 0 0,19-22-236 0 0,-1-1-1 0 0,-1 2 0 0 0,1-3 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-7 2 0 0 0,-10 3-510 0 0,-2-2 0 0 0,-37 4 0 0 0,58-7 374 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-2 0 0 0,-7-16-548 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99235.78">4842 7487 1984 0 0,'8'-15'4892'0'0,"25"-56"3991"0"0,-32 69-8617 0 0,5-10 1553 0 0,-14 18-1220 0 0,-223 300 1211 0 0,12 32-1765 0 0,210-321-44 0 0,-26 35-453 0 0,3 4 0 0 0,-43 112 1 0 0,48-117-3402 0 0,15-35-1212 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99592.82">4397 8078 4072 0 0,'-9'27'3701'0'0,"-32"89"5755"0"0,37-102-8986 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-4 0 0 0,2 4-1 0 0,0 29 1 0 0,1-30-175 0 0,0-14-266 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 3 0 0 0,0-3 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,4 1 1 0 0,1-1-12 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,7 0 0 0 0,-12 1-22 0 0,108-10-1013 0 0,-70 5-2203 0 0,0-2-3879 0 0,-8 2 5148 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="100544.5">4231 8049 3016 0 0,'19'0'5377'0'0,"54"6"3948"0"0,-72-6-9249 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-14 328-428 0 0,14-303-2466 0 0,2-14 2147 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104116.93">3258 9909 10402 0 0,'-4'21'4481'0'0,"-3"14"-1902"0"0,-14 94 1665 0 0,16-83-4010 0 0,0 49 1 0 0,8 68-2536 0 0,-3-162 2421 0 0,0 25-403 0 0,-1 1-7978 0 0,3-68-739 0 0,-4-66 11832 0 0,0 68-725 0 0,1-4 1 0 0,2 5-1 0 0,2-4 0 0 0,9-42 1 0 0,-7 69-1625 0 0,-1-2 1 0 0,2 2 0 0 0,0 1-1 0 0,12-25 1 0 0,-16 34-369 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,5 0 0 0 0,-9 4-100 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 3-1 0 0,1-3 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,6 5 18 0 0,-1 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 4 1 0 0,0-2-1 0 0,-1-2 0 0 0,2 1 1 0 0,-3 2-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 2-1 0 0,-1-2 1 0 0,0 0-1 0 0,0-2 0 0 0,-3 2 1 0 0,2-1-1 0 0,0 1 0 0 0,-1 2 1 0 0,-1-3-1 0 0,0 1 1 0 0,0-1-1 0 0,-9 11 0 0 0,9-15-125 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0-3 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-6 1 0 0 0,7-1-303 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-5-1-1 0 0,-9-12-4103 0 0,17 1 3501 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104923.8">3493 9883 7657 0 0,'12'30'6699'0'0,"46"89"-372"0"0,-25-56-4874 0 0,-10-34-1281 0 0,-19-26-169 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,2 0-1 0 0,-1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 1-1 0 0,6-2 1 0 0,-4 0-26 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-3 1 0 0,-1 3 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,3-7 0 0 0,-2 1 4 0 0,-1-3 0 0 0,0 3 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 2 0 0 0,0-3 0 0 0,-3-17 0 0 0,3 27 22 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 3 9 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2 15 50 0 0,1-2 1 0 0,0-1-1 0 0,4 28 1 0 0,-3-35-29 0 0,2-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,-1-3 0 0 0,9 12 0 0 0,-8-15-3 0 0,-1-2 0 0 0,1 2-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,2-1 0 0 0,-2 1 0 0 0,0-1 0 0 0,4-2-1 0 0,-8 3-28 0 0,8-2-4 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,0-3-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-3 0 0 0,0 2 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3-12 0 0 0,-1 1-36 0 0,0-3-1 0 0,-1 0 1 0 0,-2 3-1 0 0,0-4 0 0 0,-2 1 1 0 0,-1 3-1 0 0,0-4 1 0 0,0 1-1 0 0,-9-37 0 0 0,-2 31 26 0 0,3 19 60 0 0,7 10-43 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 3 1 0 0,0-3-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-7 39 48 0 0,3 0 0 0 0,1 0 0 0 0,2 0 0 0 0,11 80 0 0 0,-10-113-49 0 0,4 39 42 0 0,14 56 0 0 0,-17-93-23 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1-1 0 0,0 0 1 0 0,1-2 0 0 0,0-2 0 0 0,2 3 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,11 9 0 0 0,-16-18-19 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 0 0 0 0,-1 0-5 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,2-2 0 0 0,15-26-50 0 0,-1 5 1 0 0,-1-6-1 0 0,-2 2 1 0 0,-1 1 0 0 0,-1-4-1 0 0,-2 3 1 0 0,-2-4-1 0 0,0 2 1 0 0,-2-2 0 0 0,-1 0-1 0 0,-2 1 1 0 0,-1-1-1 0 0,-2 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,-8-37 0 0 0,9 65 42 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-6-4 1 0 0,8 7 8 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 28 51 0 0,2 32 61 0 0,14 115 1 0 0,-9-143-525 0 0,3 3 1 0 0,-1-3 0 0 0,4 2 0 0 0,0-3 0 0 0,19 39 0 0 0,-1-30-2064 0 0,-7-21-2278 0 0,-10-16-3126 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105686.32">4493 10130 5049 0 0,'25'-10'7516'0'0,"96"-42"863"0"0,-107 46-8014 0 0,1 0-1 0 0,-3-2 1 0 0,1-1 0 0 0,11-12 0 0 0,-20 19-367 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 3 0 0 0,-1-3 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-8 0 0 0,0-1-17 0 0,-1 9 4 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,0-3-1 0 0,-1 1 1 0 0,-1-11 0 0 0,2 14 11 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 0 0 0 0,-5 3 23 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,2 2 0 0 0,-2-1-1 0 0,-1-2 1 0 0,3 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 3-1 0 0,1-3 1 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 10 0 0 0,1-3 32 0 0,1-3 1 0 0,1-1-1 0 0,0 0 1 0 0,1 2-1 0 0,0 1 0 0 0,1-1 1 0 0,0-1-1 0 0,1-3 1 0 0,0 2-1 0 0,11 23 1 0 0,-14-33-48 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,32-10-94 0 0,-30 9 77 0 0,4-2-83 0 0,0 0-1 0 0,-1-3 0 0 0,0 2 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 2 1 0 0,0-3-1 0 0,-2 0 1 0 0,2 0-1 0 0,-1-2 0 0 0,-1 1 1 0 0,7-12-1 0 0,-5 11 88 0 0,-2-3 0 0 0,0-2-1 0 0,0 2 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1-4 1 0 0,0 4 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-1-16-1 0 0,0 26 162 0 0,-1 5-79 0 0,-1 18 25 0 0,1-8-61 0 0,1 2-1 0 0,0 1 1 0 0,1-2-1 0 0,0 4 1 0 0,4 18-1 0 0,-3-29-5 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 2 1 0 0,0-3-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 1 0 0,2 1-1 0 0,-2 0 0 0 0,0 0 1 0 0,6 3-1 0 0,-9-6-31 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,6-1-4 0 0,6-7-22 0 0,1 2-1 0 0,-1-2 1 0 0,18-21 0 0 0,-26 26 8 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-2 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-9 0 0 0,2-20 277 0 0,-2 65 121 0 0,2 28-309 0 0,9 48 28 0 0,-7-59 135 0 0,0 1 0 0 0,-2 5-1 0 0,-2-5 1 0 0,-7 69 0 0 0,2-89-157 0 0,-1-2 1 0 0,1-2-1 0 0,-3 3 0 0 0,-1-2 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-1-2-1 0 0,-2 1 0 0 0,0 0 1 0 0,-15 19-1 0 0,23-36-54 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-6-2-1 0 0,7 2-34 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,2 3 0 0 0,-2-2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,0-15-240 0 0,1-1 1 0 0,1 0-1 0 0,2 3 0 0 0,0-1 0 0 0,2-3 0 0 0,1 4 0 0 0,11-41 1 0 0,-8 40-1047 0 0,1-3 1 0 0,11-24 0 0 0,-12 36-1672 0 0,2 2 0 0 0,0 0-1 0 0,22-32 1 0 0,16-2 455 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107568.19">3808 2075 2264 0 0,'0'0'1264'0'0,"2"-113"11611"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107752.3">3798 1941 16947 0 0,'-54'-108'468'0'0,"-4"5"0"0"0,-8 2 1 0 0,1-1-1 0 0,-88-91 0 0 0,136 176-198 0 0,1 2 0 0 0,-1 2 0 0 0,-34-28 0 0 0,6 5-29 0 0,41 33-182 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108082.9">3255 1210 20908 0 0,'-42'-87'139'0'0,"50"180"1042"0"0,-5-67-1157 0 0,-3-22-31 0 0,-1-27-23 0 0,-18-156-85 0 0,19 176 116 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,1-3-1 0 0,-1 3 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,4 0-1 0 0,11-3 18 0 0,0 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 1 1 0 0,2 1-1 0 0,0 0 0 0 0,27 5 0 0 0,41 9-1769 0 0,-6 4-5130 0 0,-51-12 5483 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="109214.86">3417 1166 392 0 0,'-12'23'6034'0'0,"2"-7"-4032"0"0,4-6-594 0 0,1-1 0 0 0,-1 2 0 0 0,2 0 0 0 0,-5 15 0 0 0,8-22-1229 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 3-1 0 0,0-3 1 0 0,4 5-1 0 0,40 44-9489 0 0,-20-5 7712 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110561.68">2177 499 5273 0 0,'0'23'4914'0'0,"-3"69"2937"0"0,3 26-5773 0 0,9-126-2154 0 0,8-18 12 0 0,-1 0-1 0 0,21-49 1 0 0,-7 14 37 0 0,-30 60 39 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,7 10 124 0 0,-4-4-62 0 0,12 16 53 0 0,-4 5-1 0 0,22 41 1 0 0,28 45 261 0 0,-62-111-380 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-2 0 0 0,4-9-7 0 0,0 0-1 0 0,-1 1 1 0 0,0-4-1 0 0,0 2 1 0 0,-2 3-1 0 0,1-3 1 0 0,-2 0 0 0 0,0-2-1 0 0,1-17 1 0 0,-1 14 5 0 0,0-3-1 0 0,1 2 1 0 0,1 3 0 0 0,11-37 0 0 0,-9 52 103 0 0,1 12-114 0 0,-6-9 8 0 0,29 48-258 0 0,-8 2-2281 0 0,7 36-4829 0 0,-22-57 5570 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110855.08">2869 518 2920 0 0,'-11'17'9653'0'0,"2"-7"-8451"0"0,1 0 1 0 0,0 2 0 0 0,1 0 0 0 0,-7 17-1 0 0,14-27-1150 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,-1 1-42 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,3-1 0 0 0,-3 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,5-2 0 0 0,-1 0-13 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-3 0 0 0,0 2 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 1 0 0,6-7-1 0 0,-9 12-16 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-3 1 0 0,-1 3 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-2-1-195 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 3 0 0 0,-6-5-1 0 0,8 5 121 0 0,-46-16-2664 0 0,7 7-3064 0 0,31 5 4627 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111104.09">3094 258 7729 0 0,'0'0'9202'0'0,"-20"162"-4257"0"0,24-79-4937 0 0,12-27-184 0 0,-9-35-240 0 0,0 3-296 0 0,4 9-776 0 0,-4-5-1553 0 0,-7-21-3048 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111462.84">3004 601 824 0 0,'25'-23'6568'0'0,"-5"6"-4476"0"0,3-3-243 0 0,3-1 1 0 0,1-1-1 0 0,3 4 0 0 0,35-19 0 0 0,-59 33-1846 0 0,59-26 320 0 0,-52 27-112 0 0,-2 3 214 0 0,-21 19-294 0 0,-6 6-93 0 0,1-2-16 0 0,-23 44 0 0 0,35-62-4 0 0,0 1-1 0 0,0-1 1 0 0,1 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 3 1 0 0,1-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,0 8 1 0 0,0-13-6 0 0,-1 0-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,-1-3-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,12 0 14 0 0,-1-1-1 0 0,0 0 0 0 0,2-1 0 0 0,-1-1 1 0 0,24-9-1 0 0,-30 10-19 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2-1 1 0 0,-3-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,9-13 1 0 0,-14 17-27 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 3 0 0 0,0-3-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-3-4 1 0 0,1-4-132 0 0,-1 2-154 0 0,-1 0 0 0 0,0 0 0 0 0,0 3 1 0 0,-11-15-1 0 0,-2 3-2546 0 0,2 2-3492 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111662.02">3510 417 1328 0 0,'0'0'7777'0'0,"120"49"3578"0"0,-88-29-10147 0 0,-25-69-1520 0 0,17-48 16 0 0,8 39-344 0 0,-2 34-2817 0 0,-15 14 3457 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112370.34">4192 295 1800 0 0,'-1'20'7512'0'0,"0"68"2761"0"0,4 45-7601 0 0,15 64-3944 0 0,-17-190 855 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,5 6 0 0 0,-6-23-10568 0 0,-13-52 5572 0 0,-7-21 4377 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112619.69">4189 367 6041 0 0,'0'0'4457'0'0,"75"-119"3040"0"0,-36 78-6448 0 0,-7 22-33 0 0,-24 19-688 0 0,15 26-48 0 0,0 49-176 0 0,-41 21-128 0 0,-15-44-176 0 0,7-20-104 0 0,3-13-280 0 0,-29 14-425 0 0,18-15-831 0 0,21-18-2825 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113421.28">4478 232 1072 0 0,'11'25'6764'0'0,"35"69"3517"0"0,-44-91-10171 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 3 0 0 0,-1-3 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,6 1 0 0 0,-6-2-124 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,3-1-1 0 0,-2 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,0 2 0 0 0,-1-1-1 0 0,0 0 1 0 0,3-5 0 0 0,0-2 19 0 0,0-1 0 0 0,-1 1-1 0 0,0-4 1 0 0,-2 1 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,-3-14 0 0 0,2 9 263 0 0,2 39-233 0 0,1 0 1 0 0,1-1 0 0 0,9 29-1 0 0,-10-43-20 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 3 0 0 0,0-3 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,9 8-1 0 0,-8-11-4 0 0,-2-1 1 0 0,1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-2-1 0 0,-1 1 1 0 0,3 1 0 0 0,-3-1-1 0 0,8-6 1 0 0,-7 4-24 0 0,-1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-3 0 0 0,0 3 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 2-1 0 0,0-2 0 0 0,0-9 0 0 0,-1-2-49 0 0,0 0 1 0 0,-1 1 0 0 0,0-2 0 0 0,-2 0 0 0 0,-6-25 0 0 0,2 17 31 0 0,6 21 54 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,-5-11-1 0 0,6 14 9 0 0,-2-1 76 0 0,4 20 19 0 0,12 56-8 0 0,23 47-28 0 0,-33-110-103 0 0,1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-2 0 0 0,1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,14 14 1 0 0,-20-20 7 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,22-37-27 0 0,-19 28 15 0 0,1-2 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0-2 0 0 0,0 3 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1-20 0 0 0,-3-3-86 0 0,-11-65 0 0 0,10 96 558 0 0,1 16-333 0 0,1 31-81 0 0,2-29-59 0 0,1-1 0 0 0,0 2 0 0 0,0-3 0 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 2 0 0 0,1-3 0 0 0,2 1 0 0 0,7 10 1 0 0,-8-12-769 0 0,0 2 1 0 0,1-2 0 0 0,1-3 0 0 0,16 14-1 0 0,-14-12-1437 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,18 10-1 0 0,-5-9 786 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114177.07">5357 282 2920 0 0,'14'-13'7482'0'0,"4"0"-4874"0"0,-5 2-1019 0 0,2-3 0 0 0,-3 3 1 0 0,18-25-1 0 0,-29 35-1579 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,1 3-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 2 0 0 0,-2 0 31 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 1 0 0,0 2-1 0 0,1-2 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 5 1 0 0,2-5-16 0 0,-1 2 1 0 0,1-3-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-2-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-2-1 0 0,0 2 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,6 6 1 0 0,-6-8-26 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 0 1 0 0,-2 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,2-1 0 0 0,-1 1 0 0 0,7-3 1 0 0,-5 2-8 0 0,10-2-36 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 0 0 0 0,0-4 0 0 0,-1 3 1 0 0,0-1-1 0 0,15-17 0 0 0,-24 23 25 0 0,0-1 0 0 0,-1-2-1 0 0,0 3 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-7 0 0 0,-2-2 59 0 0,0 3 1 0 0,0 0 0 0 0,-7-23 0 0 0,5 26 245 0 0,1 9-174 0 0,1 10 13 0 0,1-1-95 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-1-4 0 0 0,2 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,12 18 0 0 0,-14-26-26 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 0 0 0 0,37-5-27 0 0,-38 3 13 0 0,0 2 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5-6 0 0 0,-8 8 5 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-4 0 0 0,5-75 542 0 0,41 397-37 0 0,-46-315-497 0 0,7 38 106 0 0,-3-5 0 0 0,-1 6 0 0 0,-3 59 0 0 0,-2-74-40 0 0,-1-2 0 0 0,-1-2 0 0 0,-1 3 0 0 0,-1-2 0 0 0,-1-1 0 0 0,-17 38 0 0 0,23-57-58 0 0,0-3-1 0 0,0 3 1 0 0,-1 0-1 0 0,1 2 1 0 0,-1-3-1 0 0,0 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3-1-1 0 0,1 0-10 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-3 1 0 0,-8-4 0 0 0,6 2-18 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,3 0 0 0 0,0-3 1 0 0,0 4-1 0 0,1-3 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-13-1 0 0,1-12-382 0 0,7-68 0 0 0,-7 96 352 0 0,1-2-5 0 0,17-85-2154 0 0,-15 83 1305 0 0,0 0-1 0 0,0 0 1 0 0,1-2-1 0 0,8-11 1 0 0,22-14-193 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6732 1109 1368 0 0,'0'0'4633'0'0,"-73"74"-392"0"0,-14 22-4273 0 0,15 2-536 0 0,29-41-2305 0 0,-11 14-2872 0 0,0 20 5745 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="249.83">7141 1160 6585 0 0,'0'0'888'0'0,"-69"68"2257"0"0,-48 58-2065 0 0,-21 26 88 0 0,4-14-1360 0 0,0-19-944 0 0,11 12-1393 0 0,39-21-2112 0 0,-5 33 4641 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.91">7140 1672 4016 0 0,'0'0'2497'0'0,"-112"79"4304"0"0,-12 19-6313 0 0,1 10-215 0 0,-28 34-233 0 0,42-26-681 0 0,0 20-2215 0 0,39-41-1681 0 0,31-41-912 0 0,24-23 5449 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.4">7123 2141 7625 0 0,'0'0'6009'0'0,"-124"112"-5136"0"0,-150 117-1 0 0,116-121-712 0 0,30 6-368 0 0,13 0-592 0 0,23-13-2985 0 0,-6 6-808 0 0,58-48-928 0 0,36-33 5521 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1002.94">7079 2710 5329 0 0,'0'0'4345'0'0,"-73"86"232"0"0,-93 67-4177 0 0,-29 2-128 0 0,78-56-336 0 0,16-5-464 0 0,59-49-3369 0 0,28-27-3617 0 0,10-9 7514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1130.96">7018 3167 7033 0 0,'0'0'440'0'0,"-108"102"7434"0"0,-5-23-7546 0 0,-25 12-672 0 0,31-9-1633 0 0,66-44-9297 0 0,25-19 11274 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12998.52">6151 1118 2736 0 0,'-1'17'3996'0'0,"-2"37"3538"0"0,-3 34-3241 0 0,-3 127-3309 0 0,18-16-213 0 0,-1 13-149 0 0,-11 65-155 0 0,-1 8-378 0 0,3-251-676 0 0,2-6 1 0 0,8 66-1 0 0,-9-89-2390 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12250.44">6064 1098 2312 0 0,'14'-1'4532'0'0,"71"-7"3253"0"0,45 2-5414 0 0,330-15-1077 0 0,-119 24-915 0 0,-174-1-374 0 0,-114 0 44 0 0,-30-1-1129 0 0,5-1-3710 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11739.01">7365 1066 7657 0 0,'-2'22'3164'0'0,"-6"77"3871"0"0,-3 367-4046 0 0,3-49-2462 0 0,2-310-450 0 0,-15 299 275 0 0,-17 95 227 0 0,12-184-476 0 0,14-136-583 0 0,11-173-729 0 0,1 0 1 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-4 10 1 0 0,-5 7 49 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10838.98">6085 2616 2920 0 0,'0'27'3907'0'0,"1"-14"-2274"0"0,2 144 6695 0 0,14 125-6239 0 0,49 168-1390 0 0,-65-446-676 0 0,0-1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 3 0 0 0,0-4 0 0 0,0 1 0 0 0,4-1 0 0 0,-4 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 1 0 0 0,39 5 152 0 0,2-2 1 0 0,59-3-1 0 0,-45 0-20 0 0,140-6 366 0 0,-102 0-334 0 0,107 10 1 0 0,-187-2-308 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9760.94">6038 2210 1328 0 0,'-21'1'2941'0'0,"-58"3"4689"0"0,-10 2-3950 0 0,-192 25-2457 0 0,-43 25-1275 0 0,293-54-402 0 0,29-2-567 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9246.94">6102 2563 5161 0 0,'-32'1'4082'0'0,"-129"3"2275"0"0,-224 15-4309 0 0,230-7-1350 0 0,81-2-389 0 0,24-7-2851 0 0,-35 0-10200 0 0,93-3 10595 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8579.49">5153 2351 2216 0 0,'0'0'2889'0'0,"-8"147"9265"0"0,2-99-11850 0 0,4-26-144 0 0,-2 0-200 0 0,-5 37-112 0 0,6-16-352 0 0,3-25-976 0 0,0-9 1480 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7438.79">5174 2004 3480 0 0,'-6'29'4372'0'0,"-20"138"4018"0"0,10 39-6733 0 0,17-53-1746 0 0,27 212 1 0 0,-22-298-629 0 0,-5-25-6444 0 0,-1-36 6022 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7131.86">5089 3016 4929 0 0,'0'0'960'0'0,"-157"-9"5097"0"0,69 15-4969 0 0,34-2-176 0 0,13 0-743 0 0,-22 3-282 0 0,-12-6 57 0 0,19-2 32 0 0,21-1-464 0 0,22-5-2896 0 0,-5 1-4962 0 0,0 0 8346 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6742.87">5057 2057 680 0 0,'11'-13'3282'0'0,"35"-41"4857"0"0,-45 53-7825 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,3-4 1 0 0,-12 4-482 0 0,4 3 509 0 0,-36-4-283 0 0,0 2-1 0 0,-75 7 1 0 0,-88 23-201 0 0,11-1-356 0 0,192-28 457 0 0,-19 1-916 0 0,7 0-3196 0 0,10-1 3330 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6395.95">4534 2044 1656 0 0,'-6'21'5877'0'0,"-21"76"2567"0"0,23-79-7663 0 0,2 4 0 0 0,-2 32-1 0 0,3 44-152 0 0,-3 98 388 0 0,-1-117-797 0 0,-3 11-250 0 0,8 167 1 0 0,9-211-2209 0 0,-6-32-564 0 0,-2-6 1927 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33632.18">4498 1197 7657 0 0,'-5'23'3999'0'0,"-16"67"2962"0"0,16-34-5170 0 0,5-49-1751 0 0,-1-5-36 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 2 0 0 0,3-7-157 0 0,42-76-121 0 0,7-5 57 0 0,-55 84 223 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-4 0 0 0,0 4 0 0 0,0-1 0 0 0,1 1 1 0 0,3 9 78 0 0,-4-5-45 0 0,7 15 23 0 0,-1 1-1 0 0,-1 3 1 0 0,-1-3 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1 26 0 0 0,-2-24 43 0 0,2-28-7 0 0,32-88 25 0 0,-25 60-175 0 0,18-44-1 0 0,-21 66 33 0 0,-8 11 22 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,6 23-171 0 0,-1-2 1 0 0,-2 3-1 0 0,0-4 0 0 0,-1 2 1 0 0,-4 47-1 0 0,-5-30-10828 0 0,2-15 9252 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33917.03">4967 1335 9073 0 0,'0'0'5802'0'0,"-54"88"-1441"0"0,21-30-4441 0 0,13-15-304 0 0,9-26-321 0 0,-9 23-1727 0 0,-2-1-5986 0 0,16-15 8418 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34459.07">5116 1098 11498 0 0,'-9'21'4876'0'0,"-26"69"-1139"0"0,31-77-3533 0 0,1-3 0 0 0,0-1 1 0 0,-1 17-1 0 0,3-21-188 0 0,1 0 1 0 0,-1 0-1 0 0,1 3 1 0 0,1-3-1 0 0,-1 0 0 0 0,2 7 1 0 0,-2-11-16 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,5 1-15 0 0,1-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-3-1 1 0 0,3 1-1 0 0,-1-1 1 0 0,0-4-1 0 0,-1 4 0 0 0,1-1 1 0 0,-1 0-1 0 0,3 1 1 0 0,-3-2-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2-1 1 0 0,1-4-1 0 0,4-6 0 0 0,-7 12 15 0 0,2-1 8 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,0-11 0 0 0,0 15-6 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-5 16 57 0 0,2-5-21 0 0,1 2 1 0 0,1 1-1 0 0,1 26 0 0 0,0-37-13 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 4 0 0 0,1-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 3 0 0 0,-5-7-7 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 2-1 0 0,-1-2 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,4-4 0 0 0,-4-1-6 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 3 0 0 0,1-3 1 0 0,-1-3-1 0 0,0 3 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-8 0 0 0,-1 6-406 0 0,0-1 0 0 0,0 3 0 0 0,0-3 0 0 0,-1-2 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6-8 0 0 0,4 7-5409 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35015.64">5478 1225 4312 0 0,'0'13'8879'0'0,"1"11"-5708"0"0,0-2-870 0 0,-3 46 0 0 0,15-87-2369 0 0,0-5 50 0 0,-5 8 21 0 0,1-3 0 0 0,0 4 0 0 0,1 0 0 0 0,1 2 0 0 0,13-19 0 0 0,-23 32-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4 12 36 0 0,4 22 69 0 0,-2-2-1 0 0,2 42 0 0 0,-8-74-99 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-3 36 0 0,11-17 33 0 0,18-35 0 0 0,-18 31 46 0 0,24-29 0 0 0,-38 52-123 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,3 2-59 0 0,41 61-1251 0 0,-31-34-3583 0 0,-5-5-6647 0 0,-6-8 8455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4146.03">4543 4678 2040 0 0,'0'25'3973'0'0,"-3"61"4267"0"0,1 13-3796 0 0,3 379-2116 0 0,-4-241-1675 0 0,-2-29-179 0 0,29 135 272 0 0,-2-53-352 0 0,-23-263 3 0 0,-3 45 1 0 0,-1-26-2111 0 0,3-5-6004 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3728.66">4568 4597 4368 0 0,'0'0'5210'0'0,"142"-14"647"0"0,-45 9-5241 0 0,-27-1-384 0 0,-10-2-368 0 0,-20 5-248 0 0,-5 3-664 0 0,-14 0-3425 0 0,-10 0-1457 0 0,13 8 5930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3270.03">5156 4609 3624 0 0,'-5'23'5760'0'0,"-14"69"2097"0"0,15-73-7119 0 0,2-3 1 0 0,0 31-1 0 0,-4 169 395 0 0,5 129-489 0 0,20-147-378 0 0,6 184-2 0 0,-15-205-183 0 0,-4-123-41 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3119.3">5185 6213 21940 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3028.96">5188 6264 21988 0 0,'18'67'24'0'0,"-4"-5"-24"0"0,-4-31 8 0 0,16 13 16 0 0,5 19 32 0 0,-17-15 0 0 0,-5-19 0 0 0,-6-19-32 0 0,-3-5-24 0 0,1 1 0 0 0,-1 7 8 0 0,0 0 32 0 0,0-5 32 0 0,-101 23-8 0 0,41-25-72 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2920.56">5107 6711 22380 0 0,'-69'3'-48'0'0,"1"4"0"0"0,11-2 0 0 0,21-4 16 0 0,-11 2 16 0 0,-2-3 8 0 0,17-3-40 0 0,21-1-144 0 0,7 3-96 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4883.96">5175 5497 408 0 0,'23'0'2379'0'0,"133"-1"7293"0"0,661 1-7493 0 0,-403 1-1836 0 0,-1-24-176 0 0,-52-3-168 0 0,-212 14-139 0 0,-118 9-3692 0 0,-1 0-3859 0 0,-25 3 5911 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.42">5128 5821 1960 0 0,'13'-1'5024'0'0,"71"-3"488"0"0,16 1-3483 0 0,-40 2-1662 0 0,40-4 152 0 0,1185-27 1574 0 0,-1197 33-2066 0 0,163-17 0 0 0,-142 1-459 0 0,-3 0 0 0 0,155 8 1 0 0,-221 8-1828 0 0,-23-2 1729 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6613.6">4490 5570 1016 0 0,'-33'4'2871'0'0,"-15"4"547"0"0,-142 29 3951 0 0,45-18-6767 0 0,-677 37-224 0 0,468-32-464 0 0,135 9 60 0 0,-20 2 43 0 0,82-19-22 0 0,-40 6-126 0 0,143-21-2326 0 0,48-1-4068 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7319.04">4518 5853 1176 0 0,'-25'0'3594'0'0,"-89"2"3784"0"0,-7 3-3472 0 0,-272 23-3138 0 0,165-12 6 0 0,-427 4-642 0 0,42-3-361 0 0,449 6-1726 0 0,160-23-1203 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8218.08">2170 5556 2408 0 0,'-2'18'6507'0'0,"-6"110"539"0"0,16 100-5411 0 0,-2-147-963 0 0,-5-75-681 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9291.1">2110 5597 528 0 0,'-7'20'4095'0'0,"-21"74"5639"0"0,24-68-9237 0 0,1-2 0 0 0,2 1 0 0 0,0 1 0 0 0,1-1 0 0 0,5 33 0 0 0,26 117-582 0 0,-29-164 174 0 0,11 44-74 0 0,-6-26 164 0 0,-1-5-1 0 0,-2 1 1 0 0,2 36-1 0 0,-6-61-173 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-80-4 231 0 0,45 1-229 0 0,-36 1-6 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9427.75">1895 6270 18523 0 0,'-128'8'160'0'0,"108"-11"-74"0"0,19 3-82 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1-5 21 0 0,40-121 177 0 0,19-65 134 0 0,-51 156-256 0 0,-2 0 0 0 0,-2-1 0 0 0,2-53-1 0 0,-8 66-36 0 0,-1 0 1 0 0,-4-25-1 0 0,-9-25-262 0 0,11 58-673 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9659.81">1791 5573 8129 0 0,'12'29'2866'0'0,"-7"-17"-2129"0"0,23 52 3037 0 0,49 75 0 0 0,-32-73-3362 0 0,-14-14-234 0 0,25 65 1 0 0,18 22-225 0 0,-39-90-1684 0 0,-12-29-6471 0 0,-8-13 6714 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10209.58">2042 5671 5617 0 0,'-12'20'4951'0'0,"-44"98"2023"0"0,-50 93-5412 0 0,61-119-1710 0 0,-8 22-157 0 0,24-32-5812 0 0,24-69-4713 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10514.67">1810 5682 6625 0 0,'0'0'3713'0'0,"85"-8"3320"0"0,1 8-6569 0 0,-25-3-368 0 0,-28 3-872 0 0,-13 0-5281 0 0,11 3 6057 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11649.14">7566 5294 4016 0 0,'-4'18'4253'0'0,"-12"78"4202"0"0,-38 262-5823 0 0,51-330-2636 0 0,1 1 0 0 0,3 42 1 0 0,1-7-287 0 0,-6-52-1449 0 0,-3-4-4018 0 0,4-6 4696 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12252.48">7437 5330 7769 0 0,'17'-10'4388'0'0,"41"-20"-1288"0"0,107-40-1 0 0,-115 54-2748 0 0,26-15 386 0 0,-74 31-716 0 0,8 40 131 0 0,-3 24-49 0 0,-3 104 0 0 0,-1-6 37 0 0,2-93-24 0 0,3-1 0 0 0,33 134 0 0 0,-38-195-55 0 0,0 2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-2 0 0 0,-1 4 0 0 0,-1-4 0 0 0,-1 15 0 0 0,-10-13 114 0 0,-5-3-173 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-3 0 0 0,0 0 0 0 0,1-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-2 0 0 0 0,3 0 0 0 0,-19-4 0 0 0,1-10-329 0 0,-56-24-1097 0 0,58 20-1191 0 0,25 12-836 0 0,4-5-3518 0 0,6 5 5003 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12584.67">7480 5427 9546 0 0,'0'0'5201'0'0,"125"180"744"0"0,-84-90-5945 0 0,-5-19-24 0 0,6-15 8 0 0,-7-3-88 0 0,-14-16-88 0 0,-7-14-992 0 0,-7-12-1705 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12863.65">7822 5275 8705 0 0,'0'0'8162'0'0,"-123"135"-5505"0"0,96-41-2489 0 0,1 3 8 0 0,7-21-152 0 0,-11 14 0 0 0,-13-4-64 0 0,3-14-56 0 0,13-24-192 0 0,16-26-2161 0 0,5-11-10122 0 0,6 0 12571 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13729.22">7824 5542 1224 0 0,'26'4'4871'0'0,"114"13"5232"0"0,-24-11-8058 0 0,417-22-1165 0 0,-263 7-746 0 0,-36 2-59 0 0,229-12 29 0 0,-419 15-2260 0 0,-40 3-1106 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14332.66">7919 5783 1896 0 0,'-14'-1'2241'0'0,"-7"-1"-725"0"0,9 0-245 0 0,0 1 0 0 0,-1 0 1 0 0,-25 5 3505 0 0,47 0-3713 0 0,27 7-226 0 0,6-4-319 0 0,0 2 1 0 0,84-2 0 0 0,107-13 270 0 0,-146 3-580 0 0,468-17 474 0 0,-63-14-138 0 0,-440 30-585 0 0,-29 3-930 0 0,3-1-1 0 0,31-6 0 0 0,-38-1 602 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15360.63">1836 5828 2216 0 0,'-18'0'4672'0'0,"-350"10"5675"0"0,-534 2-10642 0 0,823-11 886 0 0,-111 6 193 0 0,58-2-2992 0 0,48-4-8837 0 0,158 1 8807 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15876.94">1744 6045 3208 0 0,'14'-1'2551'0'0,"34"-2"4414"0"0,-90 12-3515 0 0,-510 47-1147 0 0,461-49-2170 0 0,18-1-79 0 0,-447 17-207 0 0,508-23-377 0 0,-48-4-102 0 0,40 1-3219 0 0,2-2-4221 0 0,12 3 6030 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78813.95">9574 4221 776 0 0,'-2'24'3341'0'0,"-9"125"4773"0"0,4 8-3751 0 0,-3 344-3978 0 0,3-94-204 0 0,-22 226-115 0 0,10-222-154 0 0,16-300-322 0 0,3-60-7513 0 0,0-49 6807 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79559.05">9480 3983 1112 0 0,'0'0'1040'0'0,"106"-49"8234"0"0,-61 32-9202 0 0,-19 6-368 0 0,-19 7-328 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80001.48">9680 4030 2552 0 0,'-6'18'3606'0'0,"-27"130"2796"0"0,-1 117-4875 0 0,27-121-1439 0 0,3 605-109 0 0,14 227-39 0 0,-10-759 432 0 0,-2-39-1258 0 0,9-61-4889 0 0,-4-104 4891 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80588.89">9472 6412 576 0 0,'0'0'952'0'0,"-3"111"2345"0"0,-5 32-1713 0 0,-6-47-112 0 0,6-34-408 0 0,8-18-239 0 0,3 10-385 0 0,-3 0 96 0 0,2-24 16 0 0,3-22-104 0 0,4-7 272 0 0,5-2 248 0 0,53-21-472 0 0,-3-1-952 0 0,-19 11-2496 0 0,-17 7 2952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81521.19">251 4788 1528 0 0,'8'24'2845'0'0,"13"63"4313"0"0,-9 14-3404 0 0,-6 108-2247 0 0,-14 233-1330 0 0,1 234-162 0 0,-21 98-273 0 0,17-650 65 0 0,-1 2-3527 0 0,11-115 1306 0 0,0-13 348 0 0,-2-41 1062 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82339.02">164 4695 5665 0 0,'-16'10'1792'0'0,"-10"1"-204"0"0,16-6-1024 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,1 2-1 0 0,-10 12 1 0 0,15-15-488 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 4 0 0 0,0-3 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 9 0 0 0,-2 7 112 0 0,-7 81 490 0 0,8 132 0 0 0,24 102-280 0 0,3 119-208 0 0,3 300 13 0 0,-22-678-151 0 0,-3-3 1 0 0,-7 121-1 0 0,0-31 100 0 0,4-111-99 0 0,-2-37-17 0 0,0-1 0 0 0,1-2 0 0 0,6 31 0 0 0,-2-36-44 0 0,22-5-237 0 0,-8-2-245 0 0,-1 0 0 0 0,1-2-1 0 0,22-2 1 0 0,-21 0-849 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-2-1 0 0,0-3 0 0 0,38-16 0 0 0,59-52-627 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83769.34">9661 7667 1072 0 0,'5'32'4445'0'0,"-4"-21"-3396"0"0,5 28 5016 0 0,0 77 1 0 0,-12-36-5071 0 0,6-78-985 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 5 1 0 0,1-4-1 0 0,-1 0 0 0 0,0-2 0 0 0,0 3 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,2 1-1 0 0,3 3 20 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,4-1-1 0 0,12 3 0 0 0,14 5 34 0 0,-1-5 1 0 0,2-4-1 0 0,37 2 1 0 0,121-9 64 0 0,-125 4-93 0 0,27-2 15 0 0,157-13 8 0 0,-199 11 8 0 0,-1-3 0 0 0,88-26 1 0 0,-143 34-71 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-4 0 0 0,-1 4 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-6-4-53 0 0,-22-20-194 0 0,-40-30 0 0 0,53 45 194 0 0,0-1 1 0 0,-1 2-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-21-7-1 0 0,27 11 90 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-13 2 0 0 0,22-4-31 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 4-1 0 0,-1-4 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,50 11 144 0 0,3-5-94 0 0,12 1 93 0 0,114 26 0 0 0,-173-31-117 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 5 0 0 0,1 0 1 0 0,-1 0 7 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,0-5 0 0 0,0 2 0 0 0,-1-1 1 0 0,0 1-1 0 0,-4 10 0 0 0,1-7-18 0 0,0 2 0 0 0,-1-4 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 0 0 0,0 1 0 0 0,-10 11 1 0 0,-79 56-933 0 0,52-46-210 0 0,-25 23-2841 0 0,47-36-347 0 0,-4 3-3803 0 0,16-12 5577 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84721.29">11256 8034 5857 0 0,'0'0'2792'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84991.95">11251 8034 8649 0 0,'-21'118'11277'0'0,"21"-114"-11125"0"0,-1 0 0 0 0,1 1 0 0 0,-1 2-1 0 0,1-3 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-3 1 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,3 6-1 0 0,-3-9-147 0 0,0-1-1 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 1 0 0,-2 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,3-1-40 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 0 0 0 0,5-5 0 0 0,-5 4 46 0 0,1 0 0 0 0,-1 1-1 0 0,-1-2 1 0 0,1 0-1 0 0,-2 0 1 0 0,0-4 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 2-1 0 0,1-15 1 0 0,-3 31 39 0 0,0-3 0 0 0,1-3 0 0 0,0 3 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0 3 0 0 0,0-3 0 0 0,1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,1 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 3 0 0 0,1-4 0 0 0,-1 0 0 0 0,4 0 0 0 0,-3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,15 3 0 0 0,-8-4 1 0 0,1 0 1 0 0,-2 0-1 0 0,24-3 0 0 0,-32 1-35 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-2-1-1 0 0,2-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,6-5 1 0 0,-9 3-21 0 0,1 3-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-3-3-1 0 0,-1-8-107 0 0,-1 3 0 0 0,0 2 0 0 0,-1-1 0 0 0,-5-7 0 0 0,10 14 85 0 0,-49-45-1191 0 0,14 21-2564 0 0,19 14-4515 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85404.37">11837 7825 11298 0 0,'-2'24'4157'0'0,"1"-7"-2982"0"0,-6 172 5447 0 0,12-129-6416 0 0,-5-59-203 0 0,12 60-11 0 0,-12-58 2 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,0 3-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,4 3-1 0 0,-5-4 3 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,19-17-17 0 0,6-16 20 0 0,-17 20 23 0 0,1 1 0 0 0,1 0-1 0 0,0 2 1 0 0,-2-1 0 0 0,27-19 0 0 0,-36 30-16 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,21 25 46 0 0,-4 3-472 0 0,-2 0 1 0 0,-1 3-1 0 0,-1-3 1 0 0,16 44-1 0 0,-31-67-2764 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="85794.9">12381 8226 10562 0 0,'21'-10'2956'0'0,"1"2"-1834"0"0,112-56 2790 0 0,-132 64-3922 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1-2 1 0 0,-13-4 35 0 0,8 6-33 0 0,-4-3 130 0 0,1 0-1 0 0,0 0 0 0 0,-1-2 0 0 0,0 4 1 0 0,-3-1-1 0 0,4 1 0 0 0,-2 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-13 1 0 0 0,17 0 0 0 0,0 1-1 0 0,2 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 3 1 0 0,0-2-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-2-1 0 0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-3 8-1 0 0,4-8-102 0 0,-3 9 13 0 0,1-3 0 0 0,0-2 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 19-1 0 0,2-26-65 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,3-1 1 0 0,20 1-883 0 0,0 0 0 0 0,-1-2-1 0 0,1-1 1 0 0,0-1 0 0 0,30-7-1 0 0,-24 4-4468 0 0,53-21-1 0 0,-28-4 3352 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86301.5">12778 8209 13554 0 0,'25'-8'1770'0'0,"8"-2"-555"0"0,-14 6-687 0 0,-2-2 0 0 0,2 0 0 0 0,-1-5 0 0 0,-1 3 0 0 0,16-11 0 0 0,-30 17-547 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-4 1 0 0,0 4-1 0 0,1-5 0 0 0,-1 7 22 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-1 0 101 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,2 0 0 0 0,-2 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-11 4 0 0 0,12-4-57 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,0 0 0 0 0,0 2 0 0 0,1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 3 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 2 0 0 0,-1-3 0 0 0,1 1 0 0 0,2 6 0 0 0,-1-6-45 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 2-1 0 0,0-3 0 0 0,0 0 1 0 0,1-1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1-2-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 2 1 0 0,-2-2-1 0 0,15 1 1 0 0,0 0-68 0 0,0-2-1 0 0,0 0 1 0 0,4-2 0 0 0,-4 0 0 0 0,20-3 0 0 0,-29 2 19 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 3-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 2-1 0 0,1-3 1 0 0,8-7-1 0 0,-3-2 29 0 0,3-4 0 0 0,-3 3 0 0 0,-3 1 0 0 0,1-3 0 0 0,-1-2 0 0 0,-1 1 0 0 0,-1 2-1 0 0,-1-6 1 0 0,-1 4 0 0 0,0-2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 1-1 0 0,-1-41 1 0 0,-3 56 82 0 0,-4-32 336 0 0,5 37-346 0 0,0 1-1 0 0,-1-4 0 0 0,1 4 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2-2 0 0 0,2 2-25 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,-19 34 250 0 0,11-13-274 0 0,0-1 1 0 0,2 3 0 0 0,1-2-1 0 0,2 4 1 0 0,0-5 0 0 0,1 2 0 0 0,1 3-1 0 0,1-4 1 0 0,1 1 0 0 0,1 3-1 0 0,2-5 1 0 0,0 2 0 0 0,8 34-1 0 0,-2-33-1070 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95338.1">7105 8929 9257 0 0,'1'21'5313'0'0,"1"5"-3150"0"0,14 143 2887 0 0,4-95-4801 0 0,-16-62-298 0 0,-1-2 1 0 0,-1 2-1 0 0,1 1 1 0 0,-2-1-1 0 0,0 4 0 0 0,0-3 1 0 0,-1-2-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 4-1 0 0,-5 11 1 0 0,6-22-5 0 0,2 10-798 0 0,9-19 555 0 0,19-21 377 0 0,-22 16-148 0 0,13-10 82 0 0,-3 2 0 0 0,1 2 0 0 0,0 2 0 0 0,2-2 0 0 0,25-18 0 0 0,-42 32 6 0 0,-2 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 6 0 0 0,1-4 13 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 4 1 0 0,-1 5-1 0 0,-1-10-20 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 2-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 3 0 0 0,1-3-1 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-9 3-1 0 0,-54 24-62 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95428.93">7258 9504 21492 0 0,'-49'-21'-1016'0'0,"24"4"-304"0"0,4-29-2001 0 0,15-31-6329 0 0,33 27 9650 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="95940.62">7556 9332 8585 0 0,'26'-1'3651'0'0,"-24"0"-3500"0"0,24 0 1374 0 0,-3-2 0 0 0,3-1 0 0 0,37-7-1 0 0,-49 8-1429 0 0,0-3 1 0 0,-1 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,0-5 0 0 0,13-6 0 0 0,-25 16-94 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-2 0 0 0,0-2 10 0 0,1 2 3 0 0,0 0 0 0 0,-1-3 0 0 0,1 2 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,1 1 31 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-5 0-1 0 0,0 1 61 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,4 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8 7 0 0 0,10-5-39 0 0,1 3 0 0 0,0-3-1 0 0,0 0 1 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 3 0 0 0,0-2 0 0 0,0 8 0 0 0,0-5-112 0 0,1 2-1 0 0,0 4 1 0 0,1-5 0 0 0,1 2 0 0 0,4 27 0 0 0,-4-39-6 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,3 2-1 0 0,2-1-121 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,9-1 0 0 0,14-1-940 0 0,51-11 1 0 0,-36 4-2189 0 0,0-3 0 0 0,43-23 0 0 0,-46 18 1245 0 0,-3 1 0 0 0,54-40 1 0 0,-70 44 3526 0 0,-2-4 1 0 0,30-29-1 0 0,-43 38-169 0 0,-1 1 0 0 0,0-2-1 0 0,-1 0 1 0 0,1-3-1 0 0,-4 2 1 0 0,11-15 0 0 0,-11 13 2397 0 0,-13 7-2752 0 0,4 3-283 0 0,-1-2-554 0 0,-2 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 0 0 0 0,3 0 0 0 0,-1 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-3-1 0 0,1 3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-2 0 0 0,-12 14 0 0 0,17-13-118 0 0,0-2 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 5-1 0 0,-10 71-101 0 0,11-77 100 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 2-1 0 0,0-3 1 0 0,1 4 0 0 0,-1-6 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,2 0-1 0 0,2-1-23 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,5-4 0 0 0,22-14-39 0 0,-1 2 0 0 0,-1-1 1 0 0,-2-5-1 0 0,43-34 0 0 0,-71 58 94 0 0,1 0-1 0 0,0-4 0 0 0,-1 4 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 4 1 0 0,-1-4-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,1 1 36 0 0,18 26-490 0 0,16 26-750 0 0,-21-39-2915 0 0,1-2-3311 0 0,-10-13 5700 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96241.65">8420 9109 9642 0 0,'6'19'8028'0'0,"4"21"-5082"0"0,30 88 530 0 0,-35-135-3606 0 0,19-45-150 0 0,16-30-237 0 0,-5 33-3053 0 0,-33 47 2886 0 0,-2 1 174 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,59 5-1430 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96459.32">8819 9158 9610 0 0,'0'0'9410'0'0,"-19"113"-3769"0"0,15-60-5641 0 0,4-18-248 0 0,0-26-416 0 0,0-6-1145 0 0,4-29-17019 0 0,21-63 18828 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="96646.2">8830 8789 2640 0 0,'0'0'5921'0'0,"-66"114"3569"0"0,78-83-9002 0 0,-6-24-31 0 0,7-5-313 0 0,24-7-304 0 0,-11-17-305 0 0,-16 4-1287 0 0,-7 7-5625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97708.19">9070 9177 11258 0 0,'19'-16'8062'0'0,"9"-13"-6041"0"0,70-56 755 0 0,-98 85-2773 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,3 0-1 0 0,-4-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,4 33-17 0 0,-5-24-8 0 0,1 17-42 0 0,-1-9-154 0 0,1 4 0 0 0,0-4 0 0 0,1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,10 19 0 0 0,-11-35-41 0 0,2 3 1 0 0,-1-4-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-2 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,9 3 0 0 0,0 4-52 0 0,-4-3 146 0 0,1-2 0 0 0,0 1 1 0 0,-1-3-1 0 0,2 2 0 0 0,15 1 0 0 0,-22-4 161 0 0,3-1 0 0 0,-4 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,3 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,8-9 0 0 0,2 0 134 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-3 0 0 0,11-20 0 0 0,-19 27 15 0 0,1-1 0 0 0,-2 1-1 0 0,0-2 1 0 0,1 0-1 0 0,-2-3 1 0 0,1 3 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 2-1 0 0,2-24 1 0 0,-3 31-104 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4 0 18 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-11 4 0 0 0,13-2-53 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 4 1 0 0,0-3-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,1 2 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 7 0 0 0,1 0-18 0 0,1 2-1 0 0,0-2 0 0 0,0-2 1 0 0,1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,1 2 0 0 0,0-2 1 0 0,5 12-1 0 0,-7-22 7 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 4 1 0 0,2-3 0 0 0,0-1-7 0 0,-1-1 1 0 0,0-3-1 0 0,1 3 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3-3 0 0 0,78-85-116 0 0,-82 90 127 0 0,13-9 36 0 0,-11 10-30 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,18 48 155 0 0,-3-5 0 0 0,2 3 0 0 0,-6 4 1 0 0,8 64-1 0 0,-15-75-17 0 0,-2 2 1 0 0,-4 64-1 0 0,0-85-118 0 0,-2-2 1 0 0,0 0-1 0 0,-2 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-13 27 0 0 0,18-45-45 0 0,-3 1-1 0 0,2-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 3 1 0 0,-4-1-1 0 0,5-4-11 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-4 0 0 0,0 4 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2-3 0 0 0,-6-4-66 0 0,1-2 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-2 0 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-23 1 0 0,1 7-140 0 0,2-2-1 0 0,0 3 1 0 0,2 0-1 0 0,2-1 1 0 0,0 1-1 0 0,16-50 1 0 0,-14 55 42 0 0,2 5 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1 2 0 0 0,0 0 0 0 0,2-5 1 0 0,0 5-1 0 0,1 0 0 0 0,0 3 1 0 0,1-2-1 0 0,1-2 0 0 0,3 4 0 0 0,-1 1 1 0 0,-1 2-1 0 0,26-19 0 0 0,4 8 520 0 0,1 2 1 0 0,62-19-1 0 0,-109 39-244 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 3-1 0 0,0-3 1 0 0,0 0 0 0 0,0 2-1 0 0,2 2 215 0 0,4 13 38 0 0,1 4-87 0 0,-1 4-1 0 0,2-6 0 0 0,2 0 1 0 0,0 5-1 0 0,1-4 0 0 0,15 19 1 0 0,-25-39-175 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-1-2 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,-20 23 149 0 0,19-22-236 0 0,-1-1-1 0 0,-1 3 0 0 0,1-4 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-7 2 0 0 0,-10 3-510 0 0,-2-2 0 0 0,-38 4 0 0 0,59-7 374 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-2 0 0 0,-7-16-548 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99235.78">4861 7596 1984 0 0,'8'-15'4892'0'0,"25"-57"3991"0"0,-32 70-8617 0 0,5-10 1553 0 0,-14 18-1220 0 0,-224 304 1211 0 0,13 33-1765 0 0,210-325-44 0 0,-27 34-453 0 0,4 5 0 0 0,-43 114 1 0 0,48-120-3402 0 0,15-34-1212 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99592.82">4414 8196 4072 0 0,'-9'27'3701'0'0,"-32"91"5755"0"0,37-104-8986 0 0,0 1-1 0 0,1 2 1 0 0,0-1 0 0 0,0-4 0 0 0,2 4-1 0 0,0 30 1 0 0,1-31-175 0 0,0-14-266 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,0-4 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,4 1 1 0 0,1-1-12 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,7 0 0 0 0,-12 1-22 0 0,109-10-1013 0 0,-71 5-2203 0 0,0-3-3879 0 0,-8 3 5148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="100544.5">4248 8166 3016 0 0,'19'0'5377'0'0,"54"7"3948"0"0,-72-7-9249 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-14 333-428 0 0,14-308-2466 0 0,2-14 2147 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104116.93">3271 10054 10402 0 0,'-4'21'4481'0'0,"-3"14"-1902"0"0,-14 96 1665 0 0,16-84-4010 0 0,0 49 1 0 0,8 70-2536 0 0,-3-165 2421 0 0,0 25-403 0 0,-1 2-7978 0 0,3-70-739 0 0,-4-67 11832 0 0,0 70-725 0 0,1-5 1 0 0,2 6-1 0 0,2-5 0 0 0,9-42 1 0 0,-7 70-1625 0 0,-1-3 1 0 0,2 3 0 0 0,0 1-1 0 0,12-26 1 0 0,-16 35-369 0 0,1 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-3 0 0 0,5 1 0 0 0,-9 4-100 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 4-1 0 0,1-4 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,6 5 18 0 0,-1 1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 5 1 0 0,0-3-1 0 0,-1-2 0 0 0,3 1 1 0 0,-4 2-1 0 0,0-2 0 0 0,0 1 1 0 0,-1 3-1 0 0,-1-3 1 0 0,0 0-1 0 0,0-2 0 0 0,-4 2 1 0 0,3-1-1 0 0,0 1 0 0 0,-1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-1-1 0 0,-9 11 0 0 0,9-15-125 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 3 0 0 0,0-4 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-6 1 0 0 0,7-1-303 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-5-1-1 0 0,-9-12-4103 0 0,17 1 3501 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104923.8">3507 10027 7657 0 0,'12'31'6699'0'0,"46"89"-372"0"0,-25-56-4874 0 0,-10-34-1281 0 0,-19-27-169 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-2 0 0 0,3 0-1 0 0,-2 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 1-1 0 0,6-2 1 0 0,-4 0-26 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,3-7 0 0 0,-2 1 4 0 0,-1-4 0 0 0,0 4 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,-1 2 0 0 0,0-3 0 0 0,-3-18 0 0 0,3 28 22 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 3 9 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2 16 50 0 0,1-3 1 0 0,0-1-1 0 0,4 29 1 0 0,-3-36-29 0 0,2-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 3 0 0 0,-1-4 0 0 0,9 12 0 0 0,-8-15-3 0 0,-1-2 0 0 0,1 2-1 0 0,1 0 1 0 0,-1-2 0 0 0,0 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-1 0 0 0,2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,3-1 0 0 0,-3 1 0 0 0,0-1 0 0 0,4-2-1 0 0,-8 3-28 0 0,8-2-4 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 2 1 0 0,0-3-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0 0 1 0 0,0 2-1 0 0,-1-2 0 0 0,0-1 0 0 0,-1-2 1 0 0,0 2-1 0 0,0 0 0 0 0,3-12 0 0 0,-1 1-36 0 0,0-4-1 0 0,-1 1 1 0 0,-2 3-1 0 0,0-5 0 0 0,-2 2 1 0 0,-1 3-1 0 0,0-5 1 0 0,0 2-1 0 0,-9-38 0 0 0,-2 32 26 0 0,3 18 60 0 0,7 11-43 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 4 1 0 0,0-4-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-7 39 48 0 0,3 1 0 0 0,1-1 0 0 0,2 1 0 0 0,11 81 0 0 0,-10-115-49 0 0,4 39 42 0 0,14 58 0 0 0,-17-95-23 0 0,1 1 0 0 0,0 0 0 0 0,-1 2 0 0 0,2-2-1 0 0,0 0 1 0 0,1-2 0 0 0,0-2 0 0 0,3 3 0 0 0,-2-1 0 0 0,0 1-1 0 0,0 2 1 0 0,11 8 0 0 0,-16-18-19 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2 0 0 0 0,-1 0-5 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,2-2 0 0 0,15-27-50 0 0,-1 6 1 0 0,-1-7-1 0 0,-2 3 1 0 0,-1 1 0 0 0,-1-5-1 0 0,-2 4 1 0 0,-2-5-1 0 0,0 3 1 0 0,-2-3 0 0 0,-1 1-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-8-37 0 0 0,9 66 42 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-6-4 1 0 0,8 7 8 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 28 51 0 0,2 33 61 0 0,14 117 1 0 0,-9-146-525 0 0,3 4 1 0 0,-1-4 0 0 0,4 3 0 0 0,0-4 0 0 0,19 40 0 0 0,0-30-2064 0 0,-8-22-2278 0 0,-10-16-3126 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105686.32">4511 10278 5049 0 0,'25'-10'7516'0'0,"96"-43"863"0"0,-107 47-8014 0 0,2 0-1 0 0,-4-2 1 0 0,1-1 0 0 0,11-13 0 0 0,-20 20-367 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 3 0 0 0,-1-3 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-9 0 0 0,0 0-17 0 0,-1 9 4 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 3 1 0 0,0-3-1 0 0,-1 1 1 0 0,-1-12 0 0 0,2 15 11 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-2 0 0 0 0,-5 3 23 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,2 3 0 0 0,-2-2-1 0 0,-2-2 1 0 0,4 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4-1 0 0,1-4 1 0 0,0 1 0 0 0,0-2 0 0 0,1 2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 10 0 0 0,1-2 32 0 0,1-4 1 0 0,1-1-1 0 0,0 0 1 0 0,1 2-1 0 0,0 2 0 0 0,1-2 1 0 0,0-1-1 0 0,1-3 1 0 0,0 2-1 0 0,11 24 1 0 0,-14-34-48 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 0 0 0 0,-2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-1 0 0 0,32-10-94 0 0,-30 9 77 0 0,4-2-83 0 0,0 0-1 0 0,-1-4 0 0 0,0 3 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 2 1 0 0,0-3-1 0 0,-2 0 1 0 0,2 0-1 0 0,-1-3 0 0 0,-1 2 1 0 0,7-12-1 0 0,-5 11 88 0 0,-2-3 0 0 0,0-3-1 0 0,0 3 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,-1-5 1 0 0,0 5 0 0 0,-1-2 0 0 0,-1 0 0 0 0,-1-17-1 0 0,0 27 162 0 0,-1 5-79 0 0,-1 19 25 0 0,1-9-61 0 0,1 2-1 0 0,0 1 1 0 0,1-2-1 0 0,0 5 1 0 0,4 17-1 0 0,-3-29-5 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 3 1 0 0,0-4-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-2 1 0 0,3 1-1 0 0,-3 0 0 0 0,0 0 1 0 0,6 3-1 0 0,-9-6-31 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,6-1-4 0 0,6-7-22 0 0,1 2-1 0 0,-1-2 1 0 0,18-22 0 0 0,-26 27 8 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0-1 0 0 0,-1-2-1 0 0,1 2 1 0 0,-2 2 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-9 0 0 0,2-21 277 0 0,-2 66 121 0 0,2 29-309 0 0,9 49 28 0 0,-7-61 135 0 0,0 2 0 0 0,-2 5-1 0 0,-2-5 1 0 0,-7 69 0 0 0,2-89-157 0 0,-1-3 1 0 0,1-2-1 0 0,-3 4 0 0 0,-1-3 1 0 0,-1 0-1 0 0,-1 1 1 0 0,-1-3-1 0 0,-2 1 0 0 0,0 1 1 0 0,-15 18-1 0 0,23-36-54 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-2-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,2 0 0 0 0,0 0 1 0 0,-6-2-1 0 0,7 2-34 0 0,1-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-3 0 0 0,2 4 0 0 0,-2-2 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2-5 0 0 0,0-16-240 0 0,1 0 1 0 0,1-1-1 0 0,2 4 0 0 0,0-1 0 0 0,2-4 0 0 0,1 5 0 0 0,11-42 1 0 0,-8 41-1047 0 0,1-4 1 0 0,11-24 0 0 0,-12 37-1672 0 0,2 2 0 0 0,0 0-1 0 0,22-33 1 0 0,17-2 455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107568.19">3823 2105 2264 0 0,'0'0'1264'0'0,"2"-114"11611"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="107752.3">3813 1969 16947 0 0,'-54'-109'468'0'0,"-4"4"0"0"0,-9 3 1 0 0,2-2-1 0 0,-88-92 0 0 0,135 179-198 0 0,2 2 0 0 0,-1 2 0 0 0,-34-29 0 0 0,6 6-29 0 0,41 33-182 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108082.9">3268 1228 20908 0 0,'-42'-89'139'0'0,"50"184"1042"0"0,-5-69-1157 0 0,-3-22-31 0 0,-1-27-23 0 0,-18-159-85 0 0,19 179 116 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 2 0 0 0,1-4-1 0 0,-1 4 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,4 0-1 0 0,11-3 18 0 0,0 1-1 0 0,0 0 0 0 0,1 1 0 0 0,-2 1 1 0 0,2 1-1 0 0,0 0 0 0 0,28 5 0 0 0,40 9-1769 0 0,-6 5-5130 0 0,-51-13 5483 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="109214.86">3431 1183 392 0 0,'-12'23'6034'0'0,"1"-6"-4032"0"0,5-7-594 0 0,1-1 0 0 0,-1 2 0 0 0,2 0 0 0 0,-5 16 0 0 0,8-23-1229 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 4-1 0 0,0-4 1 0 0,4 5-1 0 0,41 44-9489 0 0,-21-4 7712 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110561.68">2186 506 5273 0 0,'0'24'4914'0'0,"-3"69"2937"0"0,3 27-5773 0 0,9-128-2154 0 0,8-19 12 0 0,-1 1-1 0 0,21-50 1 0 0,-7 14 37 0 0,-30 61 39 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,7 10 124 0 0,-4-4-62 0 0,12 16 53 0 0,-4 6-1 0 0,22 41 1 0 0,29 45 261 0 0,-63-112-380 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1-2 0 0 0,4-9-7 0 0,0 0-1 0 0,-1 1 1 0 0,0-5-1 0 0,0 3 1 0 0,-2 3-1 0 0,1-3 1 0 0,-2 0 0 0 0,0-3-1 0 0,1-16 1 0 0,-1 14 5 0 0,0-4-1 0 0,1 3 1 0 0,1 3 0 0 0,11-38 0 0 0,-9 53 103 0 0,1 12-114 0 0,-6-9 8 0 0,29 49-258 0 0,-8 2-2281 0 0,8 36-4829 0 0,-23-57 5570 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110855.08">2880 526 2920 0 0,'-11'17'9653'0'0,"2"-7"-8451"0"0,1 0 1 0 0,0 2 0 0 0,1 0 0 0 0,-7 18-1 0 0,14-28-1150 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,0-2 0 0 0,2 0 0 0 0,-1 1-42 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,-4 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,5-2 0 0 0,-1 0-13 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-4 0 0 0,0 3 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-2-2 1 0 0,6-7-1 0 0,-9 12-16 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-4 1 0 0,-1 4 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-2-1-195 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 3 0 0 0,-6-5-1 0 0,8 5 121 0 0,-46-16-2664 0 0,6 7-3064 0 0,32 5 4627 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111104.09">3106 262 7729 0 0,'0'0'9202'0'0,"-20"164"-4257"0"0,24-80-4937 0 0,12-27-184 0 0,-9-36-240 0 0,0 4-296 0 0,4 8-776 0 0,-4-4-1553 0 0,-7-22-3048 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111462.84">3016 610 824 0 0,'25'-24'6568'0'0,"-5"7"-4476"0"0,3-3-243 0 0,3-1 1 0 0,1-2-1 0 0,4 5 0 0 0,34-20 0 0 0,-59 34-1846 0 0,59-26 320 0 0,-52 27-112 0 0,-2 3 214 0 0,-21 19-294 0 0,-6 7-93 0 0,1-3-16 0 0,-23 45 0 0 0,35-63-4 0 0,0 1-1 0 0,0-1 1 0 0,1 2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,1-3-1 0 0,0 1 1 0 0,1-1 0 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,0 8 1 0 0,0-13-6 0 0,-1 0-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 3 0 0 0,-1-4-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,12 0 14 0 0,-1-1-1 0 0,0 0 0 0 0,2-1 0 0 0,-1-1 1 0 0,24-10-1 0 0,-30 11-19 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,3-1 1 0 0,-4-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,9-14 1 0 0,-14 18-27 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 3 0 0 0,0-3-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-3-4 1 0 0,1-5-132 0 0,-1 3-154 0 0,-1 0 0 0 0,0 0 0 0 0,0 3 1 0 0,-11-15-1 0 0,-3 2-2546 0 0,3 3-3492 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111662.02">3524 423 1328 0 0,'0'0'7777'0'0,"120"50"3578"0"0,-87-30-10147 0 0,-26-70-1520 0 0,17-48 16 0 0,8 39-344 0 0,-2 35-2817 0 0,-15 14 3457 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112370.34">4209 299 1800 0 0,'-1'21'7512'0'0,"0"68"2761"0"0,4 46-7601 0 0,15 65-3944 0 0,-17-193 855 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,5 6 0 0 0,-6-23-10568 0 0,-13-53 5572 0 0,-7-21 4377 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112619.69">4206 372 6041 0 0,'0'0'4457'0'0,"75"-120"3040"0"0,-36 78-6448 0 0,-7 23-33 0 0,-24 19-688 0 0,15 26-48 0 0,0 50-176 0 0,-41 22-128 0 0,-15-46-176 0 0,7-19-104 0 0,3-14-280 0 0,-29 15-425 0 0,18-16-831 0 0,21-18-2825 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="113421.28">4496 235 1072 0 0,'11'26'6764'0'0,"35"69"3517"0"0,-44-92-10171 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,-1-4 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,6 1 0 0 0,-6-2-124 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,4-1-1 0 0,-3 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0-1-1 0 0,0-2 1 0 0,0 3 0 0 0,-1-1-1 0 0,0 0 1 0 0,3-5 0 0 0,0-2 19 0 0,0-1 0 0 0,-1 1-1 0 0,0-5 1 0 0,-2 2 0 0 0,1 2 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0-3 0 0 0,0 3 0 0 0,-3-14 0 0 0,2 8 263 0 0,2 41-233 0 0,1-1 1 0 0,1-1 0 0 0,9 30-1 0 0,-10-44-20 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 4 0 0 0,0-4 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,9 9-1 0 0,-8-12-4 0 0,-2-1 1 0 0,1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-3-1 0 0,-1 2 1 0 0,4 1 0 0 0,-4-1-1 0 0,8-6 1 0 0,-7 4-24 0 0,-1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-4 0 0 0,0 4 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 2-1 0 0,0-2 0 0 0,0-10 0 0 0,-1-1-49 0 0,0 0 1 0 0,-1 1 0 0 0,0-3 0 0 0,-2 1 0 0 0,-6-26 0 0 0,2 18 31 0 0,6 21 54 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 2 0 0 0,-5-11-1 0 0,6 14 9 0 0,-2-1 76 0 0,4 20 19 0 0,12 57-8 0 0,23 48-28 0 0,-33-112-103 0 0,1 0 0 0 0,1 0-1 0 0,0 3 1 0 0,0-3 0 0 0,1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,14 15 1 0 0,-20-21 7 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,22-38-27 0 0,-19 29 15 0 0,1-2 0 0 0,-1 2 0 0 0,-1-2 0 0 0,0-3 0 0 0,0 4 0 0 0,-2-1-1 0 0,1-1 1 0 0,-1-21 0 0 0,-3-2-86 0 0,-11-67 0 0 0,10 98 558 0 0,1 16-333 0 0,1 32-81 0 0,2-30-59 0 0,1-1 0 0 0,0 3 0 0 0,0-4 0 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,0 3 0 0 0,1-4 0 0 0,3 1 0 0 0,6 10 1 0 0,-8-12-769 0 0,0 3 1 0 0,1-3 0 0 0,1-3 0 0 0,16 14-1 0 0,-14-12-1437 0 0,0-2-1 0 0,0 1 1 0 0,1-1 0 0 0,18 11-1 0 0,-5-10 786 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114177.07">5378 286 2920 0 0,'14'-13'7482'0'0,"4"0"-4874"0"0,-5 2-1019 0 0,3-4 0 0 0,-4 4 1 0 0,18-25-1 0 0,-29 35-1579 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-3 0 0 0,1 4-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-4 2 0 0 0,-3 0 31 0 0,2 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 2 1 0 0,0 3-1 0 0,1-3 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 2 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 5 1 0 0,2-5-16 0 0,-1 3 1 0 0,1-4-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 2 1 0 0,0-3-1 0 0,1 1 0 0 0,-1-1 1 0 0,1-2-1 0 0,0 2 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,6 6 1 0 0,-6-8-26 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,3 0 1 0 0,-3 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,2-1 0 0 0,-1 1 0 0 0,7-3 1 0 0,-5 2-8 0 0,10-2-36 0 0,0-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 0 0 0 0,0-5 0 0 0,-1 4 1 0 0,0-1-1 0 0,15-17 0 0 0,-24 23 25 0 0,0-1 0 0 0,-1-3-1 0 0,0 4 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-7 0 0 0,-2-3 59 0 0,0 4 1 0 0,0 0 0 0 0,-7-23 0 0 0,5 26 245 0 0,1 9-174 0 0,1 10 13 0 0,1-1-95 0 0,0 1-1 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,2 3-1 0 0,-1-5 0 0 0,2 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,13 19 0 0 0,-15-27-26 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 0 0 0 0,37-5-27 0 0,-38 3 13 0 0,0 2 0 0 0,0-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-3 0 0 0,-1 2-1 0 0,-1 1 1 0 0,1-1 0 0 0,5-6 0 0 0,-8 8 5 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-4 0 0 0,5-76 542 0 0,41 402-37 0 0,-46-319-497 0 0,7 39 106 0 0,-3-6 0 0 0,-1 7 0 0 0,-3 59 0 0 0,-2-74-40 0 0,-1-3 0 0 0,-1-2 0 0 0,-1 4 0 0 0,-1-3 0 0 0,-1-1 0 0 0,-17 39 0 0 0,23-58-58 0 0,0-3-1 0 0,0 3 1 0 0,-1 0-1 0 0,1 3 1 0 0,-1-4-1 0 0,0 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-3-1-1 0 0,1 0-10 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-4 1 0 0,-8-3 0 0 0,6 2-18 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-3 0-1 0 0,4 0 0 0 0,0-4 1 0 0,0 5-1 0 0,1-3 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0-14-1 0 0,1-11-382 0 0,7-70 0 0 0,-7 98 352 0 0,1-2-5 0 0,18-86-2154 0 0,-16 84 1305 0 0,0 0-1 0 0,0 0 1 0 0,1-3-1 0 0,8-10 1 0 0,22-14-193 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4435,12 +4450,12 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2823 393 768 0 0,'-21'-2'3067'0'0,"-72"-6"5161"0"0,89 7-8092 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-6 6 0 0 0,-6 3 73 0 0,-2-1-75 0 0,-2 2-1 0 0,2 0 1 0 0,0 2-1 0 0,0-1 1 0 0,1 2-1 0 0,2 0 0 0 0,0 0 1 0 0,0 2-1 0 0,1 1 1 0 0,0-1-1 0 0,2 1 1 0 0,-12 23-1 0 0,12-16-37 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1-1 0 0,2 0 1 0 0,0 1-1 0 0,2 0 1 0 0,-2 49-1 0 0,6-45-24 0 0,1 0 0 0 0,1-1 0 0 0,2 1-1 0 0,2-1 1 0 0,0 0 0 0 0,2-1 0 0 0,2 1 0 0 0,0-1 0 0 0,19 37 0 0 0,-1-31 36 0 0,59 65 53 0 0,-79-92-121 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-2 0 0 0 0,2-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-2 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,12-2-1 0 0,-1-1 27 0 0,1-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,1-2 0 0 0,36-28 0 0 0,-46 31-24 0 0,0-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0-1 1 0 0,-2 1 0 0 0,13-22 0 0 0,39-84 42 0 0,-54 101-82 0 0,-1 0 0 0 0,-2-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1-1-1 0 0,2-22 1 0 0,-7-99 16 0 0,2 134-16 0 0,-1-5 1 0 0,0-14 20 0 0,-1 1 1 0 0,-1-1-1 0 0,-6-24 0 0 0,6 38-7 0 0,-1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-2 0 0 0 0,1-1 0 0 0,-2 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-16-17 0 0 0,0 5-434 0 0,0-1 0 0 0,-51-32 0 0 0,47 37-1260 0 0,-1 0 0 0 0,-2 1 0 0 0,0 2 0 0 0,1 1 1 0 0,-40-9-1 0 0,-29 4 44 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="824.69">2622 341 4136 0 0,'-34'2'2419'0'0,"-203"17"7864"0"0,-185 24-9204 0 0,249-25-729 0 0,-1323 122-434 0 0,1357-124 242 0 0,38-4-4207 0 0,86-11-2430 0 0,11-1 4963 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.56">2804 1411 6625 0 0,'0'0'-40'0'0,"-124"4"3921"0"0,-19 16-2489 0 0,-64 9 736 0 0,-12 5-1527 0 0,-29 1 15 0 0,55-18-200 0 0,-84 7-184 0 0,102-8-64 0 0,15-5-136 0 0,38-3-544 0 0,39-8-4185 0 0,24 3 4697 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2534.65">2783 560 784 0 0,'0'0'680'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2719.24">2783 560 1464 0 0,'-109'30'6057'0'0,"106"-30"-5585"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3965.17">2671 602 7993 0 0,'0'0'5879'0'0,"19"-11"-8800"0"0,133-87 8620 0 0,13-17-5250 0 0,239-173 479 0 0,-402 287-893 0 0,-1 0-21 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,-21-2-108 0 0,-9 0 104 0 0,0-1 0 0 0,0 2 1 0 0,0 1-1 0 0,-40 1 1 0 0,41 4 0 0 0,57-9-52 0 0,-23 6 35 0 0,55-15-8 0 0,-39 9 46 0 0,2 1 0 0 0,43-6 0 0 0,-67 12-21 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,3 1-1 0 0,-3 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,-4 12 26 0 0,-1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,-18 24 0 0 0,-23 48-505 0 0,47-83-329 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 10 0 0 0,5 25-362 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2851 402 768 0 0,'-22'-2'3067'0'0,"-71"-6"5161"0"0,89 7-8092 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-6 6 0 0 0,-6 3 73 0 0,-3 0-75 0 0,-1 1-1 0 0,2 0 1 0 0,0 2-1 0 0,0 0 1 0 0,1 1-1 0 0,1 0 0 0 0,1 1 1 0 0,0 1-1 0 0,1 1 1 0 0,0 0-1 0 0,2 0 1 0 0,-12 24-1 0 0,11-16-37 0 0,1 0 1 0 0,0 1-1 0 0,2-1 1 0 0,1 2-1 0 0,2 0 1 0 0,0 0-1 0 0,2 1 1 0 0,-2 50-1 0 0,6-47-24 0 0,1 1 0 0 0,1-1 0 0 0,2 1-1 0 0,2-2 1 0 0,0 1 0 0 0,2-1 0 0 0,2 0 0 0 0,0 0 0 0 0,20 37 0 0 0,-2-31 36 0 0,60 66 53 0 0,-80-93-121 0 0,0-2 0 0 0,1 1-1 0 0,0-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,12-2-1 0 0,0-2 27 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-2-1 0 0,-1 0 1 0 0,1-2 0 0 0,37-29 0 0 0,-47 32-24 0 0,0-2 0 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1 0 0 0 0,12-21 0 0 0,39-87 42 0 0,-54 104-82 0 0,-1-1 0 0 0,-2 0-1 0 0,2 0 1 0 0,-2 0 0 0 0,-1-1-1 0 0,2-23 1 0 0,-7-101 16 0 0,2 136-16 0 0,-1-4 1 0 0,0-14 20 0 0,-1 0 1 0 0,-1 0-1 0 0,-7-26 0 0 0,7 40-7 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,-2 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-16-16 0 0 0,0 4-434 0 0,-1 0 0 0 0,-50-33 0 0 0,46 37-1260 0 0,0 1 0 0 0,-2 0 0 0 0,-1 3 0 0 0,2 1 1 0 0,-40-10-1 0 0,-30 5 44 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="824.69">2648 349 4136 0 0,'-35'2'2419'0'0,"-204"17"7864"0"0,-187 25-9204 0 0,251-26-729 0 0,-1335 126-434 0 0,1369-128 242 0 0,39-4-4207 0 0,87-11-2430 0 0,11-1 4963 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.56">2831 1442 6625 0 0,'0'0'-40'0'0,"-125"5"3921"0"0,-19 15-2489 0 0,-65 10 736 0 0,-12 4-1527 0 0,-30 2 15 0 0,56-18-200 0 0,-84 6-184 0 0,102-8-64 0 0,15-4-136 0 0,39-4-544 0 0,39-8-4185 0 0,25 3 4697 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2534.65">2810 572 784 0 0,'0'0'680'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2719.24">2810 572 1464 0 0,'-110'31'6057'0'0,"107"-31"-5585"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3965.17">2697 615 7993 0 0,'0'0'5879'0'0,"19"-11"-8800"0"0,135-89 8620 0 0,12-18-5250 0 0,242-176 479 0 0,-406 293-893 0 0,-1 0-21 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,-22-2-108 0 0,-8-1 104 0 0,0 0 0 0 0,0 2 1 0 0,-1 1-1 0 0,-39 1 1 0 0,40 4 0 0 0,59-9-52 0 0,-24 6 35 0 0,55-15-8 0 0,-38 8 46 0 0,1 2 0 0 0,44-6 0 0 0,-68 12-21 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,3 1-1 0 0,-3 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 4 0 0 0,-4 13 26 0 0,-1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,-1-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-17 24 0 0 0,-23 49-505 0 0,47-85-329 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 10 0 0 0,5 26-362 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5199,7 +5214,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5212,13 +5227,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:9" s="33" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -5442,12 +5457,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="34" t="s">
@@ -5508,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246A17D6-B2D0-4697-9858-1E7BF0498BCC}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6206,7 +6221,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6219,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -6297,7 +6312,7 @@
     <row r="13" spans="2:3">
       <c r="C13" s="4">
         <f>SUM(C2:C11)</f>
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -6416,7 +6431,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6427,7 +6442,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="16" t="s">
         <v>139</v>
       </c>
@@ -6678,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AB5B87-F6C4-4F0B-B790-92ACD4035C2D}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7343,10 +7358,10 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E21" s="8">
-        <v>17.989999999999998</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8">
         <v>1</v>
@@ -7354,7 +7369,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8">
         <f t="shared" si="0"/>
-        <v>17.989999999999998</v>
+        <v>39</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -7375,7 +7390,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25">
         <f>SUM(H2:H21)</f>
-        <v>333.54999999999995</v>
+        <v>354.55999999999995</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -7403,7 +7418,7 @@
       </c>
       <c r="H35" s="7">
         <f>SUM(H2:H34)</f>
-        <v>667.09999999999991</v>
+        <v>709.11999999999989</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -7575,9 +7590,10 @@
     <hyperlink ref="K9" r:id="rId1" xr:uid="{8623E56C-03A8-4224-B811-8213C1EDEAF7}"/>
     <hyperlink ref="L10" r:id="rId2" xr:uid="{3610D2A5-958A-4034-862E-2645705B92BC}"/>
     <hyperlink ref="K13" r:id="rId3" xr:uid="{475CE7BC-AB98-4EB3-AAF8-491C8FD7FE8C}"/>
+    <hyperlink ref="K16" r:id="rId4" xr:uid="{D6CBF2E6-E915-4185-A616-AC625389DDD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7585,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBE0BB3-9CBC-4206-B9E0-334029E14F50}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7972,7 +7988,7 @@
       <c r="L11" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="26" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8289,7 +8305,7 @@
         <v>253</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="26" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8487,6 +8503,8 @@
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" display="https://www.amazon.com/Coupling-Connector-Coupler-Accessory-Fittings/dp/B08334DK91/ref=pd_ci_mcx_mh_pe_im_d1_hxwPPE_sspa_dk_det_cao_p_1_0?pd_rd_i=B08335MYGW&amp;pd_rd_w=0C3Wa&amp;content-id=amzn1.sym.4df33b28-cd0c-4fab-a967-61876c723a86&amp;pf_rd_p=4df33b28-cd0c-4fab-a967-61876c723a86&amp;pf_rd_r=DYH1EQ0GN1DRSK409M67&amp;pd_rd_wg=2wet9&amp;pd_rd_r=54c5f3c3-422e-4d89-9662-567b54198cf2&amp;th=1" xr:uid="{D1EEB848-FCB8-4F3D-9C7A-E1204F154047}"/>
     <hyperlink ref="M5" r:id="rId2" display="https://www.amazon.com/uxcell-Bearing-6800-2Z-1080800-Bearings/dp/B07FVZN7VW/ref=sr_1_13?crid=1D32I33EESPK9&amp;dib=eyJ2IjoiMSJ9.ljnXQz8QLMER2B1FXgRHlYa8phtI39D6fxwkWT175KZgHXC7vRLr5NBlIqjvjWkFEEsal5gZTP_ngdX80EPR4RDJBTK9xgzTXk9dc4uUhxIaY9bwBrhBz35WxUPoYXgHbWUAtlvitKyFGbSPZLtF36D6Err-Zf4bMa1yZE9HaLujHh5Kyql3CqXzgM2XFYp0rrh92TN8Bqoxuaht42ZDtMyF4TslftXWJKMrFVFxn-o.1IW1l9kgRPFcA1MD21Ly-qIP2ynGdQtZIA7l0npXArk&amp;dib_tag=se&amp;keywords=10x19x5%2Bbearing&amp;qid=1739842339&amp;sprefix=10x19x5%2Caps%2C137&amp;sr=8-13&amp;th=1" xr:uid="{9D5A2E5B-3C55-4708-8E8F-5061DD5FA0AF}"/>
+    <hyperlink ref="M21" r:id="rId3" xr:uid="{A33FCB5E-7B15-449A-A84B-7D2314966C7C}"/>
+    <hyperlink ref="M11" r:id="rId4" xr:uid="{FD79E126-0D37-4DA6-983E-AA6DDD919259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8494,47 +8512,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A189CC6F-27BB-4E42-BF52-C81D41F5AD0B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="38"/>
     <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="30">
+    <row r="3" spans="1:5" ht="72">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -8546,12 +8568,12 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="39" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30">
+    <row r="4" spans="1:5" ht="57.6">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -8563,12 +8585,12 @@
       <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="39" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30">
+    <row r="5" spans="1:5" ht="57.6">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -8580,59 +8602,59 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30">
+    <row r="6" spans="1:5" ht="57.6">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="39" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30">
+    <row r="7" spans="1:5" ht="72">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30">
+      <c r="E7" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>286</v>
+      <c r="E8" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8644,8 +8666,11 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{193A98C4-D9DB-4A41-8886-8DE3CFE9A8C2}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DF503772-99E0-4E35-AD72-EF0D3016B408}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{51E93661-FCAE-4BA5-B68B-30DB5863F44C}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{8AC10EC6-56E3-4774-B1AF-901C67E28E0B}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{BA9A8793-0205-40B5-946C-BB6280C1E4FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -8653,8 +8678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707005E9-0683-4EEB-9F97-B1BC34D93368}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8667,13 +8692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1">
       <c r="A2" s="9" t="s">
